--- a/data/sponza/Sponza.xlsx
+++ b/data/sponza/Sponza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maacr\Programming\DEI\src\data\sponza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03B839-7D43-4B5D-8D0C-C25405CAA14B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132171C8-48A8-49C1-9236-E2245D86466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="28620" windowHeight="15420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14265" windowHeight="15420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vert" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>25 passos</t>
+  </si>
+  <si>
+    <t>1 passo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -122,7 +129,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -131,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -416,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection sqref="A1:I126"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +452,7 @@
         <v>2499</v>
       </c>
       <c r="G1" s="1">
-        <f>(1+F1)/(E1-D1)*1000</f>
+        <f t="shared" ref="G1:G32" si="0">(1+F1)/(E1-D1)*1000</f>
         <v>931.44560357675107</v>
       </c>
       <c r="H1">
@@ -472,7 +482,7 @@
         <v>2499</v>
       </c>
       <c r="G2" s="1">
-        <f>(1+F2)/(E2-D2)*1000</f>
+        <f t="shared" si="0"/>
         <v>928.67756315007432</v>
       </c>
       <c r="H2">
@@ -502,7 +512,7 @@
         <v>2499</v>
       </c>
       <c r="G3" s="1">
-        <f>(1+F3)/(E3-D3)*1000</f>
+        <f t="shared" si="0"/>
         <v>925.24056254626203</v>
       </c>
       <c r="H3">
@@ -532,7 +542,7 @@
         <v>2499</v>
       </c>
       <c r="G4" s="1">
-        <f>(1+F4)/(E4-D4)*1000</f>
+        <f t="shared" si="0"/>
         <v>920.47128129602356</v>
       </c>
       <c r="H4">
@@ -562,7 +572,7 @@
         <v>2499</v>
       </c>
       <c r="G5" s="1">
-        <f>(1+F5)/(E5-D5)*1000</f>
+        <f t="shared" si="0"/>
         <v>910.08372770294864</v>
       </c>
       <c r="H5">
@@ -592,7 +602,7 @@
         <v>2499</v>
       </c>
       <c r="G6" s="1">
-        <f>(1+F6)/(E6-D6)*1000</f>
+        <f t="shared" si="0"/>
         <v>906.12540775643345</v>
       </c>
       <c r="H6">
@@ -622,7 +632,7 @@
         <v>2499</v>
       </c>
       <c r="G7" s="1">
-        <f>(1+F7)/(E7-D7)*1000</f>
+        <f t="shared" si="0"/>
         <v>904.81360839667025</v>
       </c>
       <c r="H7">
@@ -652,7 +662,7 @@
         <v>2499</v>
       </c>
       <c r="G8" s="1">
-        <f>(1+F8)/(E8-D8)*1000</f>
+        <f t="shared" si="0"/>
         <v>897.9885057471264</v>
       </c>
       <c r="H8">
@@ -682,7 +692,7 @@
         <v>2499</v>
       </c>
       <c r="G9" s="1">
-        <f>(1+F9)/(E9-D9)*1000</f>
+        <f t="shared" si="0"/>
         <v>895.41547277936957</v>
       </c>
       <c r="H9">
@@ -712,7 +722,7 @@
         <v>2499</v>
       </c>
       <c r="G10" s="1">
-        <f>(1+F10)/(E10-D10)*1000</f>
+        <f t="shared" si="0"/>
         <v>885.58271342543389</v>
       </c>
       <c r="H10">
@@ -742,7 +752,7 @@
         <v>2499</v>
       </c>
       <c r="G11" s="1">
-        <f>(1+F11)/(E11-D11)*1000</f>
+        <f t="shared" si="0"/>
         <v>883.70448921880518</v>
       </c>
       <c r="H11">
@@ -772,7 +782,7 @@
         <v>2499</v>
       </c>
       <c r="G12" s="1">
-        <f>(1+F12)/(E12-D12)*1000</f>
+        <f t="shared" si="0"/>
         <v>883.70448921880518</v>
       </c>
       <c r="H12">
@@ -802,7 +812,7 @@
         <v>2499</v>
       </c>
       <c r="G13" s="1">
-        <f>(1+F13)/(E13-D13)*1000</f>
+        <f t="shared" si="0"/>
         <v>882.45675961877862</v>
       </c>
       <c r="H13">
@@ -832,7 +842,7 @@
         <v>2499</v>
       </c>
       <c r="G14" s="1">
-        <f>(1+F14)/(E14-D14)*1000</f>
+        <f t="shared" si="0"/>
         <v>876.57784011220201</v>
       </c>
       <c r="H14">
@@ -862,7 +872,7 @@
         <v>2499</v>
       </c>
       <c r="G15" s="1">
-        <f>(1+F15)/(E15-D15)*1000</f>
+        <f t="shared" si="0"/>
         <v>876.27059235892045</v>
       </c>
       <c r="H15">
@@ -892,7 +902,7 @@
         <v>2499</v>
       </c>
       <c r="G16" s="1">
-        <f>(1+F16)/(E16-D16)*1000</f>
+        <f t="shared" si="0"/>
         <v>875.04375218760936</v>
       </c>
       <c r="H16">
@@ -922,7 +932,7 @@
         <v>2499</v>
       </c>
       <c r="G17" s="1">
-        <f>(1+F17)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>874.43161944735925</v>
       </c>
       <c r="H17">
@@ -952,7 +962,7 @@
         <v>2499</v>
       </c>
       <c r="G18" s="1">
-        <f>(1+F18)/(E18-D18)*1000</f>
+        <f t="shared" si="0"/>
         <v>871.08013937282226</v>
       </c>
       <c r="H18">
@@ -982,7 +992,7 @@
         <v>2499</v>
       </c>
       <c r="G19" s="1">
-        <f>(1+F19)/(E19-D19)*1000</f>
+        <f t="shared" si="0"/>
         <v>864.15485655029374</v>
       </c>
       <c r="H19">
@@ -1012,7 +1022,7 @@
         <v>2499</v>
       </c>
       <c r="G20" s="1">
-        <f>(1+F20)/(E20-D20)*1000</f>
+        <f t="shared" si="0"/>
         <v>861.47484493452782</v>
       </c>
       <c r="H20">
@@ -1042,7 +1052,7 @@
         <v>2499</v>
       </c>
       <c r="G21" s="1">
-        <f>(1+F21)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>859.99312005503964</v>
       </c>
       <c r="H21">
@@ -1072,7 +1082,7 @@
         <v>2499</v>
       </c>
       <c r="G22" s="1">
-        <f>(1+F22)/(E22-D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>859.69738651994498</v>
       </c>
       <c r="H22">
@@ -1102,7 +1112,7 @@
         <v>2499</v>
       </c>
       <c r="G23" s="1">
-        <f>(1+F23)/(E23-D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>852.95121119071996</v>
       </c>
       <c r="H23">
@@ -1132,7 +1142,7 @@
         <v>2499</v>
       </c>
       <c r="G24" s="1">
-        <f>(1+F24)/(E24-D24)*1000</f>
+        <f t="shared" si="0"/>
         <v>852.0790729379687</v>
       </c>
       <c r="H24">
@@ -1162,7 +1172,7 @@
         <v>2499</v>
       </c>
       <c r="G25" s="1">
-        <f>(1+F25)/(E25-D25)*1000</f>
+        <f t="shared" si="0"/>
         <v>850.62946580469543</v>
       </c>
       <c r="H25">
@@ -1192,7 +1202,7 @@
         <v>2499</v>
       </c>
       <c r="G26" s="1">
-        <f>(1+F26)/(E26-D26)*1000</f>
+        <f t="shared" si="0"/>
         <v>848.89643463497453</v>
       </c>
       <c r="H26">
@@ -1222,7 +1232,7 @@
         <v>2499</v>
       </c>
       <c r="G27" s="1">
-        <f>(1+F27)/(E27-D27)*1000</f>
+        <f t="shared" si="0"/>
         <v>846.59668134100923</v>
       </c>
       <c r="H27">
@@ -1252,7 +1262,7 @@
         <v>2499</v>
       </c>
       <c r="G28" s="1">
-        <f>(1+F28)/(E28-D28)*1000</f>
+        <f t="shared" si="0"/>
         <v>845.16565246788366</v>
       </c>
       <c r="H28">
@@ -1282,7 +1292,7 @@
         <v>2499</v>
       </c>
       <c r="G29" s="1">
-        <f>(1+F29)/(E29-D29)*1000</f>
+        <f t="shared" si="0"/>
         <v>844.30935494765276</v>
       </c>
       <c r="H29">
@@ -1312,7 +1322,7 @@
         <v>2499</v>
       </c>
       <c r="G30" s="1">
-        <f>(1+F30)/(E30-D30)*1000</f>
+        <f t="shared" si="0"/>
         <v>843.17032040472168</v>
       </c>
       <c r="H30">
@@ -1342,7 +1352,7 @@
         <v>2499</v>
       </c>
       <c r="G31" s="1">
-        <f>(1+F31)/(E31-D31)*1000</f>
+        <f t="shared" si="0"/>
         <v>841.18438761776576</v>
       </c>
       <c r="H31">
@@ -1372,7 +1382,7 @@
         <v>2499</v>
       </c>
       <c r="G32" s="1">
-        <f>(1+F32)/(E32-D32)*1000</f>
+        <f t="shared" si="0"/>
         <v>840.05376344086028</v>
       </c>
       <c r="H32">
@@ -1402,7 +1412,7 @@
         <v>2499</v>
       </c>
       <c r="G33" s="1">
-        <f>(1+F33)/(E33-D33)*1000</f>
+        <f t="shared" ref="G33:G64" si="1">(1+F33)/(E33-D33)*1000</f>
         <v>839.20778784827121</v>
       </c>
       <c r="H33">
@@ -1432,7 +1442,7 @@
         <v>2499</v>
       </c>
       <c r="G34" s="1">
-        <f>(1+F34)/(E34-D34)*1000</f>
+        <f t="shared" si="1"/>
         <v>836.68005354752336</v>
       </c>
       <c r="H34">
@@ -1462,7 +1472,7 @@
         <v>2499</v>
       </c>
       <c r="G35" s="1">
-        <f>(1+F35)/(E35-D35)*1000</f>
+        <f t="shared" si="1"/>
         <v>836.1204013377926</v>
       </c>
       <c r="H35">
@@ -1492,7 +1502,7 @@
         <v>2499</v>
       </c>
       <c r="G36" s="1">
-        <f>(1+F36)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>835.56149732620327</v>
       </c>
       <c r="H36">
@@ -1522,7 +1532,7 @@
         <v>2499</v>
       </c>
       <c r="G37" s="1">
-        <f>(1+F37)/(E37-D37)*1000</f>
+        <f t="shared" si="1"/>
         <v>834.44592790387185</v>
       </c>
       <c r="H37">
@@ -1552,7 +1562,7 @@
         <v>2499</v>
       </c>
       <c r="G38" s="1">
-        <f>(1+F38)/(E38-D38)*1000</f>
+        <f t="shared" si="1"/>
         <v>833.33333333333337</v>
       </c>
       <c r="H38">
@@ -1582,7 +1592,7 @@
         <v>2499</v>
       </c>
       <c r="G39" s="1">
-        <f>(1+F39)/(E39-D39)*1000</f>
+        <f t="shared" si="1"/>
         <v>832.77814790139905</v>
       </c>
       <c r="H39">
@@ -1612,7 +1622,7 @@
         <v>2499</v>
       </c>
       <c r="G40" s="1">
-        <f>(1+F40)/(E40-D40)*1000</f>
+        <f t="shared" si="1"/>
         <v>832.50083250083253</v>
       </c>
       <c r="H40">
@@ -1642,7 +1652,7 @@
         <v>2499</v>
       </c>
       <c r="G41" s="1">
-        <f>(1+F41)/(E41-D41)*1000</f>
+        <f t="shared" si="1"/>
         <v>830.28894055131184</v>
       </c>
       <c r="H41">
@@ -1672,7 +1682,7 @@
         <v>2499</v>
       </c>
       <c r="G42" s="1">
-        <f>(1+F42)/(E42-D42)*1000</f>
+        <f t="shared" si="1"/>
         <v>829.46250829462508</v>
       </c>
       <c r="H42">
@@ -1702,7 +1712,7 @@
         <v>2499</v>
       </c>
       <c r="G43" s="1">
-        <f>(1+F43)/(E43-D43)*1000</f>
+        <f t="shared" si="1"/>
         <v>829.18739635157544</v>
       </c>
       <c r="H43">
@@ -1732,7 +1742,7 @@
         <v>2499</v>
       </c>
       <c r="G44" s="1">
-        <f>(1+F44)/(E44-D44)*1000</f>
+        <f t="shared" si="1"/>
         <v>827.81456953642385</v>
       </c>
       <c r="H44">
@@ -1762,7 +1772,7 @@
         <v>2499</v>
       </c>
       <c r="G45" s="1">
-        <f>(1+F45)/(E45-D45)*1000</f>
+        <f t="shared" si="1"/>
         <v>826.71957671957671</v>
       </c>
       <c r="H45">
@@ -1792,7 +1802,7 @@
         <v>2499</v>
       </c>
       <c r="G46" s="1">
-        <f>(1+F46)/(E46-D46)*1000</f>
+        <f t="shared" si="1"/>
         <v>825.90023125206483</v>
       </c>
       <c r="H46">
@@ -1822,7 +1832,7 @@
         <v>2499</v>
       </c>
       <c r="G47" s="1">
-        <f>(1+F47)/(E47-D47)*1000</f>
+        <f t="shared" si="1"/>
         <v>822.90980908492429</v>
       </c>
       <c r="H47">
@@ -1852,7 +1862,7 @@
         <v>2499</v>
       </c>
       <c r="G48" s="1">
-        <f>(1+F48)/(E48-D48)*1000</f>
+        <f t="shared" si="1"/>
         <v>822.09799408089441</v>
       </c>
       <c r="H48">
@@ -1882,7 +1892,7 @@
         <v>2499</v>
       </c>
       <c r="G49" s="1">
-        <f>(1+F49)/(E49-D49)*1000</f>
+        <f t="shared" si="1"/>
         <v>820.20997375328091</v>
       </c>
       <c r="H49">
@@ -1912,7 +1922,7 @@
         <v>2499</v>
       </c>
       <c r="G50" s="1">
-        <f>(1+F50)/(E50-D50)*1000</f>
+        <f t="shared" si="1"/>
         <v>819.13499344692013</v>
       </c>
       <c r="H50">
@@ -1942,7 +1952,7 @@
         <v>2499</v>
       </c>
       <c r="G51" s="1">
-        <f>(1+F51)/(E51-D51)*1000</f>
+        <f t="shared" si="1"/>
         <v>817.7952240758915</v>
       </c>
       <c r="H51">
@@ -1972,7 +1982,7 @@
         <v>2499</v>
       </c>
       <c r="G52" s="1">
-        <f>(1+F52)/(E52-D52)*1000</f>
+        <f t="shared" si="1"/>
         <v>816.19327456741757</v>
       </c>
       <c r="H52">
@@ -2002,7 +2012,7 @@
         <v>2499</v>
       </c>
       <c r="G53" s="1">
-        <f>(1+F53)/(E53-D53)*1000</f>
+        <f t="shared" si="1"/>
         <v>814.06707912732008</v>
       </c>
       <c r="H53">
@@ -2032,7 +2042,7 @@
         <v>2499</v>
       </c>
       <c r="G54" s="1">
-        <f>(1+F54)/(E54-D54)*1000</f>
+        <f t="shared" si="1"/>
         <v>813.00813008130081</v>
       </c>
       <c r="H54">
@@ -2062,7 +2072,7 @@
         <v>2499</v>
       </c>
       <c r="G55" s="1">
-        <f>(1+F55)/(E55-D55)*1000</f>
+        <f t="shared" si="1"/>
         <v>811.1615833874107</v>
       </c>
       <c r="H55">
@@ -2092,7 +2102,7 @@
         <v>2499</v>
       </c>
       <c r="G56" s="1">
-        <f>(1+F56)/(E56-D56)*1000</f>
+        <f t="shared" si="1"/>
         <v>807.23280594123344</v>
       </c>
       <c r="H56">
@@ -2122,7 +2132,7 @@
         <v>2499</v>
       </c>
       <c r="G57" s="1">
-        <f>(1+F57)/(E57-D57)*1000</f>
+        <f t="shared" si="1"/>
         <v>806.1915511125444</v>
       </c>
       <c r="H57">
@@ -2152,7 +2162,7 @@
         <v>2499</v>
       </c>
       <c r="G58" s="1">
-        <f>(1+F58)/(E58-D58)*1000</f>
+        <f t="shared" si="1"/>
         <v>805.41237113402065</v>
       </c>
       <c r="H58">
@@ -2182,7 +2192,7 @@
         <v>2499</v>
       </c>
       <c r="G59" s="1">
-        <f>(1+F59)/(E59-D59)*1000</f>
+        <f t="shared" si="1"/>
         <v>805.41237113402065</v>
       </c>
       <c r="H59">
@@ -2212,7 +2222,7 @@
         <v>2499</v>
       </c>
       <c r="G60" s="1">
-        <f>(1+F60)/(E60-D60)*1000</f>
+        <f t="shared" si="1"/>
         <v>803.3419023136247</v>
       </c>
       <c r="H60">
@@ -2242,7 +2252,7 @@
         <v>2499</v>
       </c>
       <c r="G61" s="1">
-        <f>(1+F61)/(E61-D61)*1000</f>
+        <f t="shared" si="1"/>
         <v>799.48832747041899</v>
       </c>
       <c r="H61">
@@ -2272,7 +2282,7 @@
         <v>2499</v>
       </c>
       <c r="G62" s="1">
-        <f>(1+F62)/(E62-D62)*1000</f>
+        <f t="shared" si="1"/>
         <v>798.21200510855681</v>
       </c>
       <c r="H62">
@@ -2302,7 +2312,7 @@
         <v>2499</v>
       </c>
       <c r="G63" s="1">
-        <f>(1+F63)/(E63-D63)*1000</f>
+        <f t="shared" si="1"/>
         <v>798.21200510855681</v>
       </c>
       <c r="H63">
@@ -2332,7 +2342,7 @@
         <v>2499</v>
       </c>
       <c r="G64" s="1">
-        <f>(1+F64)/(E64-D64)*1000</f>
+        <f t="shared" si="1"/>
         <v>794.65988556897651</v>
       </c>
       <c r="H64">
@@ -2362,7 +2372,7 @@
         <v>2499</v>
       </c>
       <c r="G65" s="1">
-        <f>(1+F65)/(E65-D65)*1000</f>
+        <f t="shared" ref="G65:G96" si="2">(1+F65)/(E65-D65)*1000</f>
         <v>792.1419518377694</v>
       </c>
       <c r="H65">
@@ -2392,7 +2402,7 @@
         <v>2499</v>
       </c>
       <c r="G66" s="1">
-        <f>(1+F66)/(E66-D66)*1000</f>
+        <f t="shared" si="2"/>
         <v>790.88895919012964</v>
       </c>
       <c r="H66">
@@ -2422,7 +2432,7 @@
         <v>2499</v>
       </c>
       <c r="G67" s="1">
-        <f>(1+F67)/(E67-D67)*1000</f>
+        <f t="shared" si="2"/>
         <v>790.1390644753476</v>
       </c>
       <c r="H67">
@@ -2452,7 +2462,7 @@
         <v>2499</v>
       </c>
       <c r="G68" s="1">
-        <f>(1+F68)/(E68-D68)*1000</f>
+        <f t="shared" si="2"/>
         <v>790.1390644753476</v>
       </c>
       <c r="H68">
@@ -2482,7 +2492,7 @@
         <v>2499</v>
       </c>
       <c r="G69" s="1">
-        <f>(1+F69)/(E69-D69)*1000</f>
+        <f t="shared" si="2"/>
         <v>787.15365239294715</v>
       </c>
       <c r="H69">
@@ -2512,7 +2522,7 @@
         <v>2499</v>
       </c>
       <c r="G70" s="1">
-        <f>(1+F70)/(E70-D70)*1000</f>
+        <f t="shared" si="2"/>
         <v>780.7620237351656</v>
       </c>
       <c r="H70">
@@ -2542,7 +2552,7 @@
         <v>2499</v>
       </c>
       <c r="G71" s="1">
-        <f>(1+F71)/(E71-D71)*1000</f>
+        <f t="shared" si="2"/>
         <v>780.03120124804991</v>
       </c>
       <c r="H71">
@@ -2572,7 +2582,7 @@
         <v>2499</v>
       </c>
       <c r="G72" s="1">
-        <f>(1+F72)/(E72-D72)*1000</f>
+        <f t="shared" si="2"/>
         <v>778.816199376947</v>
       </c>
       <c r="H72">
@@ -2602,7 +2612,7 @@
         <v>2499</v>
       </c>
       <c r="G73" s="1">
-        <f>(1+F73)/(E73-D73)*1000</f>
+        <f t="shared" si="2"/>
         <v>777.60497667185064</v>
       </c>
       <c r="H73">
@@ -2632,7 +2642,7 @@
         <v>2499</v>
       </c>
       <c r="G74" s="1">
-        <f>(1+F74)/(E74-D74)*1000</f>
+        <f t="shared" si="2"/>
         <v>776.63870767319042</v>
       </c>
       <c r="H74">
@@ -2662,7 +2672,7 @@
         <v>2499</v>
       </c>
       <c r="G75" s="1">
-        <f>(1+F75)/(E75-D75)*1000</f>
+        <f t="shared" si="2"/>
         <v>775.67483710828424</v>
       </c>
       <c r="H75">
@@ -2692,7 +2702,7 @@
         <v>2499</v>
       </c>
       <c r="G76" s="1">
-        <f>(1+F76)/(E76-D76)*1000</f>
+        <f t="shared" si="2"/>
         <v>775.19379844961247</v>
       </c>
       <c r="H76">
@@ -2722,7 +2732,7 @@
         <v>2499</v>
       </c>
       <c r="G77" s="1">
-        <f>(1+F77)/(E77-D77)*1000</f>
+        <f t="shared" si="2"/>
         <v>772.55871446229912</v>
       </c>
       <c r="H77">
@@ -2752,7 +2762,7 @@
         <v>2499</v>
       </c>
       <c r="G78" s="1">
-        <f>(1+F78)/(E78-D78)*1000</f>
+        <f t="shared" si="2"/>
         <v>771.36686207960508</v>
       </c>
       <c r="H78">
@@ -2782,7 +2792,7 @@
         <v>2499</v>
       </c>
       <c r="G79" s="1">
-        <f>(1+F79)/(E79-D79)*1000</f>
+        <f t="shared" si="2"/>
         <v>770.41602465331277</v>
       </c>
       <c r="H79">
@@ -2812,7 +2822,7 @@
         <v>2499</v>
       </c>
       <c r="G80" s="1">
-        <f>(1+F80)/(E80-D80)*1000</f>
+        <f t="shared" si="2"/>
         <v>769.70443349753691</v>
       </c>
       <c r="H80">
@@ -2842,7 +2852,7 @@
         <v>2499</v>
       </c>
       <c r="G81" s="1">
-        <f>(1+F81)/(E81-D81)*1000</f>
+        <f t="shared" si="2"/>
         <v>768.04915514592926</v>
       </c>
       <c r="H81">
@@ -2872,7 +2882,7 @@
         <v>2499</v>
       </c>
       <c r="G82" s="1">
-        <f>(1+F82)/(E82-D82)*1000</f>
+        <f t="shared" si="2"/>
         <v>766.87116564417181</v>
       </c>
       <c r="H82">
@@ -2902,7 +2912,7 @@
         <v>2499</v>
       </c>
       <c r="G83" s="1">
-        <f>(1+F83)/(E83-D83)*1000</f>
+        <f t="shared" si="2"/>
         <v>766.63600122661762</v>
       </c>
       <c r="H83">
@@ -2932,7 +2942,7 @@
         <v>2499</v>
       </c>
       <c r="G84" s="1">
-        <f>(1+F84)/(E84-D84)*1000</f>
+        <f t="shared" si="2"/>
         <v>762.42756938090884</v>
       </c>
       <c r="H84">
@@ -2962,7 +2972,7 @@
         <v>2499</v>
       </c>
       <c r="G85" s="1">
-        <f>(1+F85)/(E85-D85)*1000</f>
+        <f t="shared" si="2"/>
         <v>761.96281621456876</v>
       </c>
       <c r="H85">
@@ -2992,7 +3002,7 @@
         <v>2499</v>
       </c>
       <c r="G86" s="1">
-        <f>(1+F86)/(E86-D86)*1000</f>
+        <f t="shared" si="2"/>
         <v>761.73065204143825</v>
       </c>
       <c r="H86">
@@ -3022,7 +3032,7 @@
         <v>2499</v>
       </c>
       <c r="G87" s="1">
-        <f>(1+F87)/(E87-D87)*1000</f>
+        <f t="shared" si="2"/>
         <v>759.6475235490733</v>
       </c>
       <c r="H87">
@@ -3052,7 +3062,7 @@
         <v>2499</v>
       </c>
       <c r="G88" s="1">
-        <f>(1+F88)/(E88-D88)*1000</f>
+        <f t="shared" si="2"/>
         <v>759.18615244457942</v>
       </c>
       <c r="H88">
@@ -3082,7 +3092,7 @@
         <v>2499</v>
       </c>
       <c r="G89" s="1">
-        <f>(1+F89)/(E89-D89)*1000</f>
+        <f t="shared" si="2"/>
         <v>756.65859564164646</v>
       </c>
       <c r="H89">
@@ -3112,7 +3122,7 @@
         <v>2499</v>
       </c>
       <c r="G90" s="1">
-        <f>(1+F90)/(E90-D90)*1000</f>
+        <f t="shared" si="2"/>
         <v>755.2870090634442</v>
       </c>
       <c r="H90">
@@ -3142,7 +3152,7 @@
         <v>2499</v>
       </c>
       <c r="G91" s="1">
-        <f>(1+F91)/(E91-D91)*1000</f>
+        <f t="shared" si="2"/>
         <v>755.05889459377829</v>
       </c>
       <c r="H91">
@@ -3172,7 +3182,7 @@
         <v>2499</v>
       </c>
       <c r="G92" s="1">
-        <f>(1+F92)/(E92-D92)*1000</f>
+        <f t="shared" si="2"/>
         <v>755.05889459377829</v>
       </c>
       <c r="H92">
@@ -3202,7 +3212,7 @@
         <v>2499</v>
       </c>
       <c r="G93" s="1">
-        <f>(1+F93)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>754.14781297134232</v>
       </c>
       <c r="H93">
@@ -3232,7 +3242,7 @@
         <v>2499</v>
       </c>
       <c r="G94" s="1">
-        <f>(1+F94)/(E94-D94)*1000</f>
+        <f t="shared" si="2"/>
         <v>754.14781297134232</v>
       </c>
       <c r="H94">
@@ -3262,7 +3272,7 @@
         <v>2499</v>
       </c>
       <c r="G95" s="1">
-        <f>(1+F95)/(E95-D95)*1000</f>
+        <f t="shared" si="2"/>
         <v>749.62518740629685</v>
       </c>
       <c r="H95">
@@ -3292,7 +3302,7 @@
         <v>2499</v>
       </c>
       <c r="G96" s="1">
-        <f>(1+F96)/(E96-D96)*1000</f>
+        <f t="shared" si="2"/>
         <v>748.05505685218429</v>
       </c>
       <c r="H96">
@@ -3322,7 +3332,7 @@
         <v>2499</v>
       </c>
       <c r="G97" s="1">
-        <f>(1+F97)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G127" si="3">(1+F97)/(E97-D97)*1000</f>
         <v>745.37865235539653</v>
       </c>
       <c r="H97">
@@ -3352,7 +3362,7 @@
         <v>2499</v>
       </c>
       <c r="G98" s="1">
-        <f>(1+F98)/(E98-D98)*1000</f>
+        <f t="shared" si="3"/>
         <v>744.04761904761904</v>
       </c>
       <c r="H98">
@@ -3382,7 +3392,7 @@
         <v>2499</v>
       </c>
       <c r="G99" s="1">
-        <f>(1+F99)/(E99-D99)*1000</f>
+        <f t="shared" si="3"/>
         <v>743.60499702558002</v>
       </c>
       <c r="H99">
@@ -3412,7 +3422,7 @@
         <v>2499</v>
       </c>
       <c r="G100" s="1">
-        <f>(1+F100)/(E100-D100)*1000</f>
+        <f t="shared" si="3"/>
         <v>743.16290130796665</v>
       </c>
       <c r="H100">
@@ -3442,7 +3452,7 @@
         <v>2499</v>
       </c>
       <c r="G101" s="1">
-        <f>(1+F101)/(E101-D101)*1000</f>
+        <f t="shared" si="3"/>
         <v>742.72133095662502</v>
       </c>
       <c r="H101">
@@ -3472,7 +3482,7 @@
         <v>2499</v>
       </c>
       <c r="G102" s="1">
-        <f>(1+F102)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>740.74074074074065</v>
       </c>
       <c r="H102">
@@ -3502,7 +3512,7 @@
         <v>2499</v>
       </c>
       <c r="G103" s="1">
-        <f>(1+F103)/(E103-D103)*1000</f>
+        <f t="shared" si="3"/>
         <v>737.68073177928591</v>
       </c>
       <c r="H103">
@@ -3532,7 +3542,7 @@
         <v>2499</v>
       </c>
       <c r="G104" s="1">
-        <f>(1+F104)/(E104-D104)*1000</f>
+        <f t="shared" si="3"/>
         <v>737.46312684365773</v>
       </c>
       <c r="H104">
@@ -3562,7 +3572,7 @@
         <v>2499</v>
       </c>
       <c r="G105" s="1">
-        <f>(1+F105)/(E105-D105)*1000</f>
+        <f t="shared" si="3"/>
         <v>735.94347954077125</v>
       </c>
       <c r="H105">
@@ -3592,7 +3602,7 @@
         <v>2499</v>
       </c>
       <c r="G106" s="1">
-        <f>(1+F106)/(E106-D106)*1000</f>
+        <f t="shared" si="3"/>
         <v>734.43008225616927</v>
       </c>
       <c r="H106">
@@ -3622,7 +3632,7 @@
         <v>2499</v>
       </c>
       <c r="G107" s="1">
-        <f>(1+F107)/(E107-D107)*1000</f>
+        <f t="shared" si="3"/>
         <v>732.49340755933201</v>
       </c>
       <c r="H107">
@@ -3652,7 +3662,7 @@
         <v>2499</v>
       </c>
       <c r="G108" s="1">
-        <f>(1+F108)/(E108-D108)*1000</f>
+        <f t="shared" si="3"/>
         <v>730.56691992986555</v>
       </c>
       <c r="H108">
@@ -3682,7 +3692,7 @@
         <v>2499</v>
       </c>
       <c r="G109" s="1">
-        <f>(1+F109)/(E109-D109)*1000</f>
+        <f t="shared" si="3"/>
         <v>729.92700729927003</v>
       </c>
       <c r="H109">
@@ -3712,7 +3722,7 @@
         <v>2499</v>
       </c>
       <c r="G110" s="1">
-        <f>(1+F110)/(E110-D110)*1000</f>
+        <f t="shared" si="3"/>
         <v>729.28821470245043</v>
       </c>
       <c r="H110">
@@ -3742,7 +3752,7 @@
         <v>2499</v>
       </c>
       <c r="G111" s="1">
-        <f>(1+F111)/(E111-D111)*1000</f>
+        <f t="shared" si="3"/>
         <v>729.07553222513855</v>
       </c>
       <c r="H111">
@@ -3772,7 +3782,7 @@
         <v>2499</v>
       </c>
       <c r="G112" s="1">
-        <f>(1+F112)/(E112-D112)*1000</f>
+        <f t="shared" si="3"/>
         <v>722.96124927703875</v>
       </c>
       <c r="H112">
@@ -3802,7 +3812,7 @@
         <v>2499</v>
       </c>
       <c r="G113" s="1">
-        <f>(1+F113)/(E113-D113)*1000</f>
+        <f t="shared" si="3"/>
         <v>707.81426953567382</v>
       </c>
       <c r="H113">
@@ -3832,7 +3842,7 @@
         <v>2499</v>
       </c>
       <c r="G114" s="1">
-        <f>(1+F114)/(E114-D114)*1000</f>
+        <f t="shared" si="3"/>
         <v>707.81426953567382</v>
       </c>
       <c r="H114">
@@ -3862,7 +3872,7 @@
         <v>2499</v>
       </c>
       <c r="G115" s="1">
-        <f>(1+F115)/(E115-D115)*1000</f>
+        <f t="shared" si="3"/>
         <v>702.64193367060147</v>
       </c>
       <c r="H115">
@@ -3892,7 +3902,7 @@
         <v>2499</v>
       </c>
       <c r="G116" s="1">
-        <f>(1+F116)/(E116-D116)*1000</f>
+        <f t="shared" si="3"/>
         <v>701.2622720897615</v>
       </c>
       <c r="H116">
@@ -3922,7 +3932,7 @@
         <v>2499</v>
       </c>
       <c r="G117" s="1">
-        <f>(1+F117)/(E117-D117)*1000</f>
+        <f t="shared" si="3"/>
         <v>685.87105624142669</v>
       </c>
       <c r="H117">
@@ -3952,7 +3962,7 @@
         <v>2499</v>
       </c>
       <c r="G118" s="1">
-        <f>(1+F118)/(E118-D118)*1000</f>
+        <f t="shared" si="3"/>
         <v>680.27210884353735</v>
       </c>
       <c r="H118">
@@ -3982,7 +3992,7 @@
         <v>2499</v>
       </c>
       <c r="G119" s="1">
-        <f>(1+F119)/(E119-D119)*1000</f>
+        <f t="shared" si="3"/>
         <v>670.06164567140183</v>
       </c>
       <c r="H119">
@@ -4012,7 +4022,7 @@
         <v>2499</v>
       </c>
       <c r="G120" s="1">
-        <f>(1+F120)/(E120-D120)*1000</f>
+        <f t="shared" si="3"/>
         <v>643.00411522633749</v>
       </c>
       <c r="H120">
@@ -4042,7 +4052,7 @@
         <v>2499</v>
       </c>
       <c r="G121" s="1">
-        <f>(1+F121)/(E121-D121)*1000</f>
+        <f t="shared" si="3"/>
         <v>570.12542759407074</v>
       </c>
       <c r="H121">
@@ -4072,7 +4082,7 @@
         <v>2499</v>
       </c>
       <c r="G122" s="1">
-        <f>(1+F122)/(E122-D122)*1000</f>
+        <f t="shared" si="3"/>
         <v>568.44020009095038</v>
       </c>
       <c r="H122">
@@ -4102,7 +4112,7 @@
         <v>2499</v>
       </c>
       <c r="G123" s="1">
-        <f>(1+F123)/(E123-D123)*1000</f>
+        <f t="shared" si="3"/>
         <v>555.30875166592625</v>
       </c>
       <c r="H123">
@@ -4132,7 +4142,7 @@
         <v>2499</v>
       </c>
       <c r="G124" s="1">
-        <f>(1+F124)/(E124-D124)*1000</f>
+        <f t="shared" si="3"/>
         <v>548.72695346795433</v>
       </c>
       <c r="H124">
@@ -4162,7 +4172,7 @@
         <v>2499</v>
       </c>
       <c r="G125" s="2">
-        <f>(1+F125)/(E125-D125)*1000</f>
+        <f t="shared" si="3"/>
         <v>527.64879696074297</v>
       </c>
     </row>
@@ -4186,7 +4196,7 @@
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(1+F126)/(E126-D126)*1000</f>
+        <f t="shared" si="3"/>
         <v>474.29330297856194</v>
       </c>
       <c r="H126">
@@ -4216,7 +4226,7 @@
         <v>2499</v>
       </c>
       <c r="G127" s="3">
-        <f>(1+F127)/(E127-D127)*1000</f>
+        <f t="shared" si="3"/>
         <v>468.42795578040096</v>
       </c>
       <c r="H127">
@@ -4238,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DCC5E4-4596-4A1D-B7E4-1487CBA53F68}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7905,7 +7915,7 @@
         <v>2499</v>
       </c>
       <c r="G1" s="2">
-        <f>(1+F1)/(E1-D1)*1000</f>
+        <f t="shared" ref="G1:G32" si="0">(1+F1)/(E1-D1)*1000</f>
         <v>412.40514681623227</v>
       </c>
     </row>
@@ -7929,7 +7939,7 @@
         <v>2499</v>
       </c>
       <c r="G2" s="3">
-        <f>(1+F2)/(E2-D2)*1000</f>
+        <f t="shared" si="0"/>
         <v>362.31884057971013</v>
       </c>
       <c r="H2">
@@ -7959,7 +7969,7 @@
         <v>2499</v>
       </c>
       <c r="G3" s="3">
-        <f>(1+F3)/(E3-D3)*1000</f>
+        <f t="shared" si="0"/>
         <v>361.79450072358901</v>
       </c>
       <c r="H3">
@@ -7989,7 +7999,7 @@
         <v>2499</v>
       </c>
       <c r="G4" s="3">
-        <f>(1+F4)/(E4-D4)*1000</f>
+        <f t="shared" si="0"/>
         <v>361.58518947063931</v>
       </c>
       <c r="H4">
@@ -8019,7 +8029,7 @@
         <v>2499</v>
       </c>
       <c r="G5" s="3">
-        <f>(1+F5)/(E5-D5)*1000</f>
+        <f t="shared" si="0"/>
         <v>357.80735651925005</v>
       </c>
       <c r="H5">
@@ -8049,7 +8059,7 @@
         <v>2499</v>
       </c>
       <c r="G6" s="3">
-        <f>(1+F6)/(E6-D6)*1000</f>
+        <f t="shared" si="0"/>
         <v>357.70496494491346</v>
       </c>
       <c r="H6">
@@ -8079,7 +8089,7 @@
         <v>2499</v>
       </c>
       <c r="G7" s="3">
-        <f>(1+F7)/(E7-D7)*1000</f>
+        <f t="shared" si="0"/>
         <v>357.04084547272208</v>
       </c>
       <c r="H7">
@@ -8109,7 +8119,7 @@
         <v>2499</v>
       </c>
       <c r="G8" s="3">
-        <f>(1+F8)/(E8-D8)*1000</f>
+        <f t="shared" si="0"/>
         <v>356.07463324312778</v>
       </c>
       <c r="H8">
@@ -8139,7 +8149,7 @@
         <v>2499</v>
       </c>
       <c r="G9" s="3">
-        <f>(1+F9)/(E9-D9)*1000</f>
+        <f t="shared" si="0"/>
         <v>355.36602700781805</v>
       </c>
       <c r="H9">
@@ -8169,7 +8179,7 @@
         <v>2499</v>
       </c>
       <c r="G10" s="3">
-        <f>(1+F10)/(E10-D10)*1000</f>
+        <f t="shared" si="0"/>
         <v>354.30839002267572</v>
       </c>
       <c r="H10">
@@ -8199,7 +8209,7 @@
         <v>2499</v>
       </c>
       <c r="G11" s="3">
-        <f>(1+F11)/(E11-D11)*1000</f>
+        <f t="shared" si="0"/>
         <v>354.20799093227544</v>
       </c>
       <c r="H11">
@@ -8229,7 +8239,7 @@
         <v>2499</v>
       </c>
       <c r="G12" s="3">
-        <f>(1+F12)/(E12-D12)*1000</f>
+        <f t="shared" si="0"/>
         <v>353.85704175513092</v>
       </c>
       <c r="H12">
@@ -8259,7 +8269,7 @@
         <v>2499</v>
       </c>
       <c r="G13" s="3">
-        <f>(1+F13)/(E13-D13)*1000</f>
+        <f t="shared" si="0"/>
         <v>353.70684776457273</v>
       </c>
       <c r="H13">
@@ -8289,7 +8299,7 @@
         <v>2499</v>
       </c>
       <c r="G14" s="3">
-        <f>(1+F14)/(E14-D14)*1000</f>
+        <f t="shared" si="0"/>
         <v>353.40684195646026</v>
       </c>
       <c r="H14">
@@ -8319,7 +8329,7 @@
         <v>2499</v>
       </c>
       <c r="G15" s="3">
-        <f>(1+F15)/(E15-D15)*1000</f>
+        <f t="shared" si="0"/>
         <v>351.41973573235873</v>
       </c>
       <c r="H15">
@@ -8349,7 +8359,7 @@
         <v>2499</v>
       </c>
       <c r="G16" s="3">
-        <f>(1+F16)/(E16-D16)*1000</f>
+        <f t="shared" si="0"/>
         <v>350.68031982045164</v>
       </c>
       <c r="H16">
@@ -8379,7 +8389,7 @@
         <v>2499</v>
       </c>
       <c r="G17" s="3">
-        <f>(1+F17)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>350.48366746109633</v>
       </c>
       <c r="H17">
@@ -8409,7 +8419,7 @@
         <v>2499</v>
       </c>
       <c r="G18" s="3">
-        <f>(1+F18)/(E18-D18)*1000</f>
+        <f t="shared" si="0"/>
         <v>350.33632286995515</v>
       </c>
       <c r="H18">
@@ -8439,7 +8449,7 @@
         <v>2499</v>
       </c>
       <c r="G19" s="3">
-        <f>(1+F19)/(E19-D19)*1000</f>
+        <f t="shared" si="0"/>
         <v>348.33495889647486</v>
       </c>
       <c r="H19">
@@ -8469,7 +8479,7 @@
         <v>2499</v>
       </c>
       <c r="G20" s="3">
-        <f>(1+F20)/(E20-D20)*1000</f>
+        <f t="shared" si="0"/>
         <v>347.99554565701555</v>
       </c>
       <c r="H20">
@@ -8499,7 +8509,7 @@
         <v>2499</v>
       </c>
       <c r="G21" s="3">
-        <f>(1+F21)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>347.41523068371316</v>
       </c>
       <c r="H21">
@@ -8529,7 +8539,7 @@
         <v>2499</v>
       </c>
       <c r="G22" s="3">
-        <f>(1+F22)/(E22-D22)*1000</f>
+        <f t="shared" si="0"/>
         <v>347.27045422975414</v>
       </c>
       <c r="H22">
@@ -8559,7 +8569,7 @@
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f>(1+F23)/(E23-D23)*1000</f>
+        <f t="shared" si="0"/>
         <v>345.11319712865816</v>
       </c>
       <c r="H23">
@@ -8589,7 +8599,7 @@
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f>(1+F24)/(E24-D24)*1000</f>
+        <f t="shared" si="0"/>
         <v>345.01794093292852</v>
       </c>
       <c r="H24">
@@ -8619,7 +8629,7 @@
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f>(1+F25)/(E25-D25)*1000</f>
+        <f t="shared" si="0"/>
         <v>343.5009618026931</v>
       </c>
       <c r="H25">
@@ -8649,7 +8659,7 @@
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f>(1+F26)/(E26-D26)*1000</f>
+        <f t="shared" si="0"/>
         <v>342.98257648511452</v>
       </c>
       <c r="H26">
@@ -8679,7 +8689,7 @@
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f>(1+F27)/(E27-D27)*1000</f>
+        <f t="shared" si="0"/>
         <v>341.81022696199068</v>
       </c>
       <c r="H27">
@@ -8709,7 +8719,7 @@
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f>(1+F28)/(E28-D28)*1000</f>
+        <f t="shared" si="0"/>
         <v>341.48340390657012</v>
       </c>
       <c r="H28">
@@ -8739,7 +8749,7 @@
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f>(1+F29)/(E29-D29)*1000</f>
+        <f t="shared" si="0"/>
         <v>341.3435281267067</v>
       </c>
       <c r="H29">
@@ -8769,7 +8779,7 @@
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f>(1+F30)/(E30-D30)*1000</f>
+        <f t="shared" si="0"/>
         <v>341.11065629690273</v>
       </c>
       <c r="H30">
@@ -8799,7 +8809,7 @@
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f>(1+F31)/(E31-D31)*1000</f>
+        <f t="shared" si="0"/>
         <v>338.56988082340195</v>
       </c>
       <c r="H31">
@@ -8829,7 +8839,7 @@
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f>(1+F32)/(E32-D32)*1000</f>
+        <f t="shared" si="0"/>
         <v>338.47820200379095</v>
       </c>
       <c r="H32">
@@ -8859,7 +8869,7 @@
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f>(1+F33)/(E33-D33)*1000</f>
+        <f t="shared" ref="G33:G64" si="1">(1+F33)/(E33-D33)*1000</f>
         <v>337.38191632928476</v>
       </c>
       <c r="H33">
@@ -8889,7 +8899,7 @@
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f>(1+F34)/(E34-D34)*1000</f>
+        <f t="shared" si="1"/>
         <v>337.15441672285908</v>
       </c>
       <c r="H34">
@@ -8919,7 +8929,7 @@
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f>(1+F35)/(E35-D35)*1000</f>
+        <f t="shared" si="1"/>
         <v>336.74568965517244</v>
       </c>
       <c r="H35">
@@ -8949,7 +8959,7 @@
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f>(1+F36)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>336.6096674296486</v>
       </c>
       <c r="H36">
@@ -8979,7 +8989,7 @@
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f>(1+F37)/(E37-D37)*1000</f>
+        <f t="shared" si="1"/>
         <v>336.33795237454592</v>
       </c>
       <c r="H37">
@@ -9009,7 +9019,7 @@
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f>(1+F38)/(E38-D38)*1000</f>
+        <f t="shared" si="1"/>
         <v>335.52543282780834</v>
       </c>
       <c r="H38">
@@ -9039,7 +9049,7 @@
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f>(1+F39)/(E39-D39)*1000</f>
+        <f t="shared" si="1"/>
         <v>335.48040794417608</v>
       </c>
       <c r="H39">
@@ -9069,7 +9079,7 @@
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f>(1+F40)/(E40-D40)*1000</f>
+        <f t="shared" si="1"/>
         <v>334.85132601125099</v>
       </c>
       <c r="H40">
@@ -9099,7 +9109,7 @@
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f>(1+F41)/(E41-D41)*1000</f>
+        <f t="shared" si="1"/>
         <v>334.62722527104802</v>
       </c>
       <c r="H41">
@@ -9129,7 +9139,7 @@
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f>(1+F42)/(E42-D42)*1000</f>
+        <f t="shared" si="1"/>
         <v>333.37778370449394</v>
       </c>
       <c r="H42">
@@ -9159,7 +9169,7 @@
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f>(1+F43)/(E43-D43)*1000</f>
+        <f t="shared" si="1"/>
         <v>333.33333333333331</v>
       </c>
       <c r="H43">
@@ -9189,7 +9199,7 @@
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f>(1+F44)/(E44-D44)*1000</f>
+        <f t="shared" si="1"/>
         <v>333.02251232183295</v>
       </c>
       <c r="H44">
@@ -9219,7 +9229,7 @@
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f>(1+F45)/(E45-D45)*1000</f>
+        <f t="shared" si="1"/>
         <v>332.97815663292488</v>
       </c>
       <c r="H45">
@@ -9249,7 +9259,7 @@
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f>(1+F46)/(E46-D46)*1000</f>
+        <f t="shared" si="1"/>
         <v>332.62373602980313</v>
       </c>
       <c r="H46">
@@ -9279,7 +9289,7 @@
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f>(1+F47)/(E47-D47)*1000</f>
+        <f t="shared" si="1"/>
         <v>332.57948649727285</v>
       </c>
       <c r="H47">
@@ -9309,7 +9319,7 @@
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f>(1+F48)/(E48-D48)*1000</f>
+        <f t="shared" si="1"/>
         <v>331.74097664543524</v>
       </c>
       <c r="H48">
@@ -9339,7 +9349,7 @@
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f>(1+F49)/(E49-D49)*1000</f>
+        <f t="shared" si="1"/>
         <v>331.47706178732432</v>
       </c>
       <c r="H49">
@@ -9369,7 +9379,7 @@
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f>(1+F50)/(E50-D50)*1000</f>
+        <f t="shared" si="1"/>
         <v>330.99430689792138</v>
       </c>
       <c r="H50">
@@ -9399,7 +9409,7 @@
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f>(1+F51)/(E51-D51)*1000</f>
+        <f t="shared" si="1"/>
         <v>330.77533739084413</v>
       </c>
       <c r="H51">
@@ -9429,7 +9439,7 @@
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f>(1+F52)/(E52-D52)*1000</f>
+        <f t="shared" si="1"/>
         <v>329.33737320511131</v>
       </c>
       <c r="H52">
@@ -9459,7 +9469,7 @@
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f>(1+F53)/(E53-D53)*1000</f>
+        <f t="shared" si="1"/>
         <v>327.82585890375032</v>
       </c>
       <c r="H53">
@@ -9489,7 +9499,7 @@
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f>(1+F54)/(E54-D54)*1000</f>
+        <f t="shared" si="1"/>
         <v>327.09668978149944</v>
       </c>
       <c r="H54">
@@ -9519,7 +9529,7 @@
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f>(1+F55)/(E55-D55)*1000</f>
+        <f t="shared" si="1"/>
         <v>326.84010981827686</v>
       </c>
       <c r="H55">
@@ -9549,7 +9559,7 @@
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f>(1+F56)/(E56-D56)*1000</f>
+        <f t="shared" si="1"/>
         <v>326.66928002090685</v>
       </c>
       <c r="H56">
@@ -9579,7 +9589,7 @@
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f>(1+F57)/(E57-D57)*1000</f>
+        <f t="shared" si="1"/>
         <v>325.35137948984902</v>
       </c>
       <c r="H57">
@@ -9609,7 +9619,7 @@
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f>(1+F58)/(E58-D58)*1000</f>
+        <f t="shared" si="1"/>
         <v>323.70840347015405</v>
       </c>
       <c r="H58">
@@ -9639,7 +9649,7 @@
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f>(1+F59)/(E59-D59)*1000</f>
+        <f t="shared" si="1"/>
         <v>322.70556344391377</v>
       </c>
       <c r="H59">
@@ -9669,7 +9679,7 @@
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f>(1+F60)/(E60-D60)*1000</f>
+        <f t="shared" si="1"/>
         <v>322.37266279819471</v>
       </c>
       <c r="H60">
@@ -9699,7 +9709,7 @@
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f>(1+F61)/(E61-D61)*1000</f>
+        <f t="shared" si="1"/>
         <v>321.66752444673187</v>
       </c>
       <c r="H61">
@@ -9729,7 +9739,7 @@
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f>(1+F62)/(E62-D62)*1000</f>
+        <f t="shared" si="1"/>
         <v>320.26646169613116</v>
       </c>
       <c r="H62">
@@ -9759,7 +9769,7 @@
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f>(1+F63)/(E63-D63)*1000</f>
+        <f t="shared" si="1"/>
         <v>319.65221838639565</v>
       </c>
       <c r="H63">
@@ -9789,7 +9799,7 @@
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f>(1+F64)/(E64-D64)*1000</f>
+        <f t="shared" si="1"/>
         <v>318.75557822261891</v>
       </c>
       <c r="H64">
@@ -9819,7 +9829,7 @@
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f>(1+F65)/(E65-D65)*1000</f>
+        <f t="shared" ref="G65:G96" si="2">(1+F65)/(E65-D65)*1000</f>
         <v>318.75557822261891</v>
       </c>
       <c r="H65">
@@ -9849,7 +9859,7 @@
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f>(1+F66)/(E66-D66)*1000</f>
+        <f t="shared" si="2"/>
         <v>317.6620076238882</v>
       </c>
       <c r="H66">
@@ -9879,7 +9889,7 @@
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f>(1+F67)/(E67-D67)*1000</f>
+        <f t="shared" si="2"/>
         <v>316.37560111364212</v>
       </c>
       <c r="H67">
@@ -9909,7 +9919,7 @@
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f>(1+F68)/(E68-D68)*1000</f>
+        <f t="shared" si="2"/>
         <v>315.73629704470824</v>
       </c>
       <c r="H68">
@@ -9939,7 +9949,7 @@
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f>(1+F69)/(E69-D69)*1000</f>
+        <f t="shared" si="2"/>
         <v>315.69642631645411</v>
       </c>
       <c r="H69">
@@ -9969,7 +9979,7 @@
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f>(1+F70)/(E70-D70)*1000</f>
+        <f t="shared" si="2"/>
         <v>315.25851197982348</v>
       </c>
       <c r="H70">
@@ -9999,7 +10009,7 @@
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f>(1+F71)/(E71-D71)*1000</f>
+        <f t="shared" si="2"/>
         <v>313.87319522912742</v>
       </c>
       <c r="H71">
@@ -10029,7 +10039,7 @@
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f>(1+F72)/(E72-D72)*1000</f>
+        <f t="shared" si="2"/>
         <v>311.25498007968127</v>
       </c>
       <c r="H72">
@@ -10059,7 +10069,7 @@
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f>(1+F73)/(E73-D73)*1000</f>
+        <f t="shared" si="2"/>
         <v>310.28918952463698</v>
       </c>
       <c r="H73">
@@ -10089,7 +10099,7 @@
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f>(1+F74)/(E74-D74)*1000</f>
+        <f t="shared" si="2"/>
         <v>309.75096022797669</v>
       </c>
       <c r="H74">
@@ -10119,7 +10129,7 @@
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f>(1+F75)/(E75-D75)*1000</f>
+        <f t="shared" si="2"/>
         <v>307.31407498463432</v>
       </c>
       <c r="H75">
@@ -10149,7 +10159,7 @@
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f>(1+F76)/(E76-D76)*1000</f>
+        <f t="shared" si="2"/>
         <v>307.12530712530713</v>
       </c>
       <c r="H76">
@@ -10179,7 +10189,7 @@
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f>(1+F77)/(E77-D77)*1000</f>
+        <f t="shared" si="2"/>
         <v>307.12530712530713</v>
       </c>
       <c r="H77">
@@ -10209,7 +10219,7 @@
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f>(1+F78)/(E78-D78)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.8614213821038</v>
       </c>
       <c r="H78">
@@ -10239,7 +10249,7 @@
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f>(1+F79)/(E79-D79)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.82376043200787</v>
       </c>
       <c r="H79">
@@ -10269,7 +10279,7 @@
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f>(1+F80)/(E80-D80)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.78610872499695</v>
       </c>
       <c r="H80">
@@ -10299,7 +10309,7 @@
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f>(1+F81)/(E81-D81)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.67320902845927</v>
       </c>
       <c r="H81">
@@ -10329,7 +10339,7 @@
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f>(1+F82)/(E82-D82)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.44765873988723</v>
       </c>
       <c r="H82">
@@ -10359,7 +10369,7 @@
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f>(1+F83)/(E83-D83)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.3350079647102</v>
       </c>
       <c r="H83">
@@ -10389,7 +10399,7 @@
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f>(1+F84)/(E84-D84)*1000</f>
+        <f t="shared" si="2"/>
         <v>306.07247796278159</v>
       </c>
       <c r="H84">
@@ -10419,7 +10429,7 @@
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f>(1+F85)/(E85-D85)*1000</f>
+        <f t="shared" si="2"/>
         <v>304.91523356506889</v>
       </c>
       <c r="H85">
@@ -10449,7 +10459,7 @@
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f>(1+F86)/(E86-D86)*1000</f>
+        <f t="shared" si="2"/>
         <v>304.80370641306996</v>
       </c>
       <c r="H86">
@@ -10479,7 +10489,7 @@
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f>(1+F87)/(E87-D87)*1000</f>
+        <f t="shared" si="2"/>
         <v>304.35841246652058</v>
       </c>
       <c r="H87">
@@ -10509,7 +10519,7 @@
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f>(1+F88)/(E88-D88)*1000</f>
+        <f t="shared" si="2"/>
         <v>304.06227195329603</v>
       </c>
       <c r="H88">
@@ -10539,7 +10549,7 @@
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f>(1+F89)/(E89-D89)*1000</f>
+        <f t="shared" si="2"/>
         <v>304.02529490453605</v>
       </c>
       <c r="H89">
@@ -10569,7 +10579,7 @@
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f>(1+F90)/(E90-D90)*1000</f>
+        <f t="shared" si="2"/>
         <v>303.65601846228589</v>
       </c>
       <c r="H90">
@@ -10599,7 +10609,7 @@
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f>(1+F91)/(E91-D91)*1000</f>
+        <f t="shared" si="2"/>
         <v>303.3244358165494</v>
       </c>
       <c r="H91">
@@ -10629,7 +10639,7 @@
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f>(1+F92)/(E92-D92)*1000</f>
+        <f t="shared" si="2"/>
         <v>303.17729808391948</v>
       </c>
       <c r="H92">
@@ -10659,7 +10669,7 @@
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f>(1+F93)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>303.0670384289005</v>
       </c>
       <c r="H93">
@@ -10689,7 +10699,7 @@
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f>(1+F94)/(E94-D94)*1000</f>
+        <f t="shared" si="2"/>
         <v>301.78657653307584</v>
       </c>
       <c r="H94">
@@ -10719,7 +10729,7 @@
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f>(1+F95)/(E95-D95)*1000</f>
+        <f t="shared" si="2"/>
         <v>300.30030030030031</v>
       </c>
       <c r="H95">
@@ -10749,7 +10759,7 @@
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f>(1+F96)/(E96-D96)*1000</f>
+        <f t="shared" si="2"/>
         <v>299.83209402734468</v>
       </c>
       <c r="H96">
@@ -10779,7 +10789,7 @@
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f>(1+F97)/(E97-D97)*1000</f>
+        <f t="shared" ref="G97:G127" si="3">(1+F97)/(E97-D97)*1000</f>
         <v>299.72425368660834</v>
       </c>
       <c r="H97">
@@ -10809,7 +10819,7 @@
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f>(1+F98)/(E98-D98)*1000</f>
+        <f t="shared" si="3"/>
         <v>299.47292764734067</v>
       </c>
       <c r="H98">
@@ -10839,7 +10849,7 @@
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f>(1+F99)/(E99-D99)*1000</f>
+        <f t="shared" si="3"/>
         <v>298.36496001909535</v>
       </c>
       <c r="H99">
@@ -10869,7 +10879,7 @@
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f>(1+F100)/(E100-D100)*1000</f>
+        <f t="shared" si="3"/>
         <v>297.26516052318669</v>
       </c>
       <c r="H100">
@@ -10899,7 +10909,7 @@
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f>(1+F101)/(E101-D101)*1000</f>
+        <f t="shared" si="3"/>
         <v>296.55990510083035</v>
       </c>
       <c r="H101">
@@ -10929,7 +10939,7 @@
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f>(1+F102)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>295.36862003780715</v>
       </c>
       <c r="H102">
@@ -10959,7 +10969,7 @@
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f>(1+F103)/(E103-D103)*1000</f>
+        <f t="shared" si="3"/>
         <v>295.124542556959</v>
       </c>
       <c r="H103">
@@ -10989,7 +10999,7 @@
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f>(1+F104)/(E104-D104)*1000</f>
+        <f t="shared" si="3"/>
         <v>294.53345900094251</v>
       </c>
       <c r="H104">
@@ -11019,7 +11029,7 @@
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f>(1+F105)/(E105-D105)*1000</f>
+        <f t="shared" si="3"/>
         <v>294.11764705882354</v>
       </c>
       <c r="H105">
@@ -11049,7 +11059,7 @@
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f>(1+F106)/(E106-D106)*1000</f>
+        <f t="shared" si="3"/>
         <v>293.08323563892145</v>
       </c>
       <c r="H106">
@@ -11079,7 +11089,7 @@
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f>(1+F107)/(E107-D107)*1000</f>
+        <f t="shared" si="3"/>
         <v>290.66387629345422</v>
       </c>
       <c r="H107">
@@ -11109,7 +11119,7 @@
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f>(1+F108)/(E108-D108)*1000</f>
+        <f t="shared" si="3"/>
         <v>288.71694191015132</v>
       </c>
       <c r="H108">
@@ -11139,7 +11149,7 @@
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f>(1+F109)/(E109-D109)*1000</f>
+        <f t="shared" si="3"/>
         <v>284.64078333143573</v>
       </c>
       <c r="H109">
@@ -11169,7 +11179,7 @@
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f>(1+F110)/(E110-D110)*1000</f>
+        <f t="shared" si="3"/>
         <v>284.51120974166383</v>
       </c>
       <c r="H110">
@@ -11199,7 +11209,7 @@
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f>(1+F111)/(E111-D111)*1000</f>
+        <f t="shared" si="3"/>
         <v>283.18985047575893</v>
       </c>
       <c r="H111">
@@ -11229,7 +11239,7 @@
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f>(1+F112)/(E112-D112)*1000</f>
+        <f t="shared" si="3"/>
         <v>282.77344191833504</v>
       </c>
       <c r="H112">
@@ -11259,7 +11269,7 @@
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f>(1+F113)/(E113-D113)*1000</f>
+        <f t="shared" si="3"/>
         <v>281.56323910350267</v>
       </c>
       <c r="H113">
@@ -11289,7 +11299,7 @@
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f>(1+F114)/(E114-D114)*1000</f>
+        <f t="shared" si="3"/>
         <v>272.53897307314946</v>
       </c>
       <c r="H114">
@@ -11319,7 +11329,7 @@
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f>(1+F115)/(E115-D115)*1000</f>
+        <f t="shared" si="3"/>
         <v>271.03209019947963</v>
       </c>
       <c r="H115">
@@ -11349,7 +11359,7 @@
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f>(1+F116)/(E116-D116)*1000</f>
+        <f t="shared" si="3"/>
         <v>268.0965147453083</v>
       </c>
       <c r="H116">
@@ -11379,7 +11389,7 @@
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f>(1+F117)/(E117-D117)*1000</f>
+        <f t="shared" si="3"/>
         <v>266.09898882384249</v>
       </c>
       <c r="H117">
@@ -11409,7 +11419,7 @@
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f>(1+F118)/(E118-D118)*1000</f>
+        <f t="shared" si="3"/>
         <v>265.87259385302565</v>
       </c>
       <c r="H118">
@@ -11439,7 +11449,7 @@
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f>(1+F119)/(E119-D119)*1000</f>
+        <f t="shared" si="3"/>
         <v>264.27061310782238</v>
       </c>
       <c r="H119">
@@ -11469,7 +11479,7 @@
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f>(1+F120)/(E120-D120)*1000</f>
+        <f t="shared" si="3"/>
         <v>261.61573880284641</v>
       </c>
       <c r="H120">
@@ -11499,7 +11509,7 @@
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f>(1+F121)/(E121-D121)*1000</f>
+        <f t="shared" si="3"/>
         <v>251.66096235152003</v>
       </c>
       <c r="H121">
@@ -11529,7 +11539,7 @@
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f>(1+F122)/(E122-D122)*1000</f>
+        <f t="shared" si="3"/>
         <v>251.0544286001205</v>
       </c>
       <c r="H122">
@@ -11559,7 +11569,7 @@
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f>(1+F123)/(E123-D123)*1000</f>
+        <f t="shared" si="3"/>
         <v>249.95000999800041</v>
       </c>
       <c r="H123">
@@ -11589,7 +11599,7 @@
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f>(1+F124)/(E124-D124)*1000</f>
+        <f t="shared" si="3"/>
         <v>242.41248909143798</v>
       </c>
       <c r="H124">
@@ -11619,7 +11629,7 @@
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f>(1+F125)/(E125-D125)*1000</f>
+        <f t="shared" si="3"/>
         <v>240.45397710878137</v>
       </c>
       <c r="H125">
@@ -11649,7 +11659,7 @@
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(1+F126)/(E126-D126)*1000</f>
+        <f t="shared" si="3"/>
         <v>228.81200805418268</v>
       </c>
       <c r="H126">
@@ -11679,7 +11689,7 @@
         <v>2499</v>
       </c>
       <c r="G127" s="3">
-        <f>(1+F127)/(E127-D127)*1000</f>
+        <f t="shared" si="3"/>
         <v>217.12697585548031</v>
       </c>
       <c r="H127">
@@ -11699,15 +11709,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8BA843-9138-4EA4-89C2-DBBC24EBF330}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -11718,50 +11728,50 @@
         <v>0</v>
       </c>
       <c r="D1">
+        <v>16732</v>
+      </c>
+      <c r="E1">
+        <v>22094</v>
+      </c>
+      <c r="F1">
+        <v>2499</v>
+      </c>
+      <c r="G1" s="2">
+        <f t="shared" ref="G1:G33" si="0">(F1+1)/(E1-D1)*1000</f>
+        <v>466.24393882879525</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>6566</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>12262</v>
       </c>
-      <c r="F1">
-        <v>2499</v>
-      </c>
-      <c r="G1" s="2">
-        <f>(F1+1)/(E1-D1)*1000</f>
+      <c r="F2">
+        <v>2499</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
         <v>438.90449438202245</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>128</v>
-      </c>
-      <c r="C2">
-        <v>128</v>
-      </c>
-      <c r="D2">
-        <v>4056</v>
-      </c>
-      <c r="E2">
-        <v>10908</v>
-      </c>
-      <c r="F2">
-        <v>2499</v>
-      </c>
-      <c r="G2" s="3">
-        <f>(F2+1)/(E2-D2)*1000</f>
-        <v>364.85697606538236</v>
-      </c>
-      <c r="H2">
-        <v>2497</v>
-      </c>
-      <c r="I2">
-        <v>58.3551191894665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -11769,200 +11779,200 @@
         <v>128</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D3">
+        <v>4056</v>
+      </c>
+      <c r="E3">
+        <v>10908</v>
+      </c>
+      <c r="F3">
+        <v>2499</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>364.85697606538236</v>
+      </c>
+      <c r="H3">
+        <v>2497</v>
+      </c>
+      <c r="I3">
+        <v>58.3551191894665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>4189</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>11054</v>
       </c>
-      <c r="F3">
-        <v>2499</v>
-      </c>
-      <c r="G3" s="3">
-        <f>(F3+1)/(E3-D3)*1000</f>
+      <c r="F4">
+        <v>2499</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>364.16605972323379</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>16399</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>50.820690561240802</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>256</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5217</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>12194</v>
       </c>
-      <c r="F4">
-        <v>2499</v>
-      </c>
-      <c r="G4" s="3">
-        <f>(F4+1)/(E4-D4)*1000</f>
+      <c r="F5">
+        <v>2499</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>358.32019492618605</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>23855</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>49.660165253168302</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
         <v>64</v>
       </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>5137</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>12132</v>
       </c>
-      <c r="F5">
-        <v>2499</v>
-      </c>
-      <c r="G5" s="3">
-        <f>(F5+1)/(E5-D5)*1000</f>
+      <c r="F6">
+        <v>2499</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>357.39814152966403</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>16399</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>50.820690561240802</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>512</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>5074</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>12093</v>
       </c>
-      <c r="F6">
-        <v>2499</v>
-      </c>
-      <c r="G6" s="3">
-        <f>(F6+1)/(E6-D6)*1000</f>
+      <c r="F7">
+        <v>2499</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>356.17609346060692</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>10862</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>53.2450287974874</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>5158</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>12193</v>
       </c>
-      <c r="F7">
-        <v>2499</v>
-      </c>
-      <c r="G7" s="3">
-        <f>(F7+1)/(E7-D7)*1000</f>
+      <c r="F8">
+        <v>2499</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>355.36602700781805</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>32788</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>45.842384753024398</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
         <v>5213</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>12253</v>
       </c>
-      <c r="F8">
-        <v>2499</v>
-      </c>
-      <c r="G8" s="3">
-        <f>(F8+1)/(E8-D8)*1000</f>
+      <c r="F9">
+        <v>2499</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>355.11363636363637</v>
-      </c>
-      <c r="H8">
-        <v>23855</v>
-      </c>
-      <c r="I8">
-        <v>49.660165253168302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>5238</v>
-      </c>
-      <c r="E9">
-        <v>12285</v>
-      </c>
-      <c r="F9">
-        <v>2499</v>
-      </c>
-      <c r="G9" s="3">
-        <f>(F9+1)/(E9-D9)*1000</f>
-        <v>354.76089115935861</v>
       </c>
       <c r="H9">
         <v>23855</v>
@@ -11971,67 +11981,67 @@
         <v>49.660165253168302</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>64</v>
       </c>
       <c r="D10">
+        <v>5238</v>
+      </c>
+      <c r="E10">
+        <v>12285</v>
+      </c>
+      <c r="F10">
+        <v>2499</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>354.76089115935861</v>
+      </c>
+      <c r="H10">
+        <v>23855</v>
+      </c>
+      <c r="I10">
+        <v>49.660165253168302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11">
         <v>5021</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>12088</v>
       </c>
-      <c r="F10">
-        <v>2499</v>
-      </c>
-      <c r="G10" s="3">
-        <f>(F10+1)/(E10-D10)*1000</f>
+      <c r="F11">
+        <v>2499</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
         <v>353.75689825951605</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>10862</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>53.2450287974874</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>128</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>4344</v>
-      </c>
-      <c r="E11">
-        <v>11412</v>
-      </c>
-      <c r="F11">
-        <v>2499</v>
-      </c>
-      <c r="G11" s="3">
-        <f>(F11+1)/(E11-D11)*1000</f>
-        <v>353.70684776457273</v>
-      </c>
-      <c r="H11">
-        <v>8203</v>
-      </c>
-      <c r="I11">
-        <v>54.216030644869697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
@@ -12039,29 +12049,29 @@
         <v>128</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>4355</v>
+        <v>4344</v>
       </c>
       <c r="E12">
-        <v>11441</v>
+        <v>11412</v>
       </c>
       <c r="F12">
         <v>2499</v>
       </c>
       <c r="G12" s="3">
-        <f>(F12+1)/(E12-D12)*1000</f>
-        <v>352.80835450183463</v>
+        <f t="shared" si="0"/>
+        <v>353.70684776457273</v>
       </c>
       <c r="H12">
-        <v>4122</v>
+        <v>8203</v>
       </c>
       <c r="I12">
-        <v>56.7938516875952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54.216030644869697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>32</v>
       </c>
@@ -12069,116 +12079,116 @@
         <v>128</v>
       </c>
       <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>4355</v>
+      </c>
+      <c r="E13">
+        <v>11441</v>
+      </c>
+      <c r="F13">
+        <v>2499</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>352.80835450183463</v>
+      </c>
+      <c r="H13">
+        <v>4122</v>
+      </c>
+      <c r="I13">
+        <v>56.7938516875952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
         <v>256</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>4567</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>11655</v>
       </c>
-      <c r="F13">
-        <v>2499</v>
-      </c>
-      <c r="G13" s="3">
-        <f>(F13+1)/(E13-D13)*1000</f>
+      <c r="F14">
+        <v>2499</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
         <v>352.70880361173818</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>2267</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>58.900601280725802</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>5278</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>12367</v>
       </c>
-      <c r="F14">
-        <v>2499</v>
-      </c>
-      <c r="G14" s="3">
-        <f>(F14+1)/(E14-D14)*1000</f>
+      <c r="F15">
+        <v>2499</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
         <v>352.65904923120326</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>55903</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>44.834522981713498</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>32</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
         <v>64</v>
       </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
         <v>5274</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>12374</v>
       </c>
-      <c r="F15">
-        <v>2499</v>
-      </c>
-      <c r="G15" s="3">
-        <f>(F15+1)/(E15-D15)*1000</f>
+      <c r="F16">
+        <v>2499</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>352.11267605633799</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>32788</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>45.842384753024398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>5312</v>
-      </c>
-      <c r="E16">
-        <v>12415</v>
-      </c>
-      <c r="F16">
-        <v>2499</v>
-      </c>
-      <c r="G16" s="3">
-        <f>(F16+1)/(E16-D16)*1000</f>
-        <v>351.9639588906096</v>
-      </c>
-      <c r="H16">
-        <v>33147</v>
-      </c>
-      <c r="I16">
-        <v>45.2369227514749</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -12186,29 +12196,29 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>5203</v>
+        <v>5312</v>
       </c>
       <c r="E17">
-        <v>12306</v>
+        <v>12415</v>
       </c>
       <c r="F17">
         <v>2499</v>
       </c>
       <c r="G17" s="3">
-        <f>(F17+1)/(E17-D17)*1000</f>
+        <f t="shared" si="0"/>
         <v>351.9639588906096</v>
       </c>
       <c r="H17">
-        <v>2267</v>
+        <v>33147</v>
       </c>
       <c r="I17">
-        <v>58.900601280725802</v>
+        <v>45.2369227514749</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -12216,29 +12226,29 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C18">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D18">
-        <v>4913</v>
+        <v>5203</v>
       </c>
       <c r="E18">
-        <v>12022</v>
+        <v>12306</v>
       </c>
       <c r="F18">
         <v>2499</v>
       </c>
       <c r="G18" s="3">
-        <f>(F18+1)/(E18-D18)*1000</f>
-        <v>351.66690111126741</v>
+        <f t="shared" si="0"/>
+        <v>351.9639588906096</v>
       </c>
       <c r="H18">
-        <v>5004</v>
+        <v>2267</v>
       </c>
       <c r="I18">
-        <v>55.667527051436103</v>
+        <v>58.900601280725802</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -12246,29 +12256,29 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D19">
-        <v>5213</v>
+        <v>4913</v>
       </c>
       <c r="E19">
-        <v>12352</v>
+        <v>12022</v>
       </c>
       <c r="F19">
         <v>2499</v>
       </c>
       <c r="G19" s="3">
-        <f>(F19+1)/(E19-D19)*1000</f>
-        <v>350.18910211514219</v>
+        <f t="shared" si="0"/>
+        <v>351.66690111126741</v>
       </c>
       <c r="H19">
-        <v>55903</v>
+        <v>5004</v>
       </c>
       <c r="I19">
-        <v>44.834522981713498</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -12276,29 +12286,29 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D20">
-        <v>5225</v>
+        <v>5213</v>
       </c>
       <c r="E20">
-        <v>12367</v>
+        <v>12352</v>
       </c>
       <c r="F20">
         <v>2499</v>
       </c>
       <c r="G20" s="3">
-        <f>(F20+1)/(E20-D20)*1000</f>
-        <v>350.04200504060492</v>
+        <f t="shared" si="0"/>
+        <v>350.18910211514219</v>
       </c>
       <c r="H20">
-        <v>8245</v>
+        <v>55903</v>
       </c>
       <c r="I20">
-        <v>54.016567328543601</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -12309,26 +12319,26 @@
         <v>64</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>4985</v>
+        <v>5225</v>
       </c>
       <c r="E21">
-        <v>12127</v>
+        <v>12367</v>
       </c>
       <c r="F21">
         <v>2499</v>
       </c>
       <c r="G21" s="3">
-        <f>(F21+1)/(E21-D21)*1000</f>
+        <f t="shared" si="0"/>
         <v>350.04200504060492</v>
       </c>
       <c r="H21">
-        <v>5262</v>
+        <v>8245</v>
       </c>
       <c r="I21">
-        <v>55.509725348513903</v>
+        <v>54.016567328543601</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -12336,29 +12346,29 @@
         <v>32</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C22">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>5250</v>
+        <v>4985</v>
       </c>
       <c r="E22">
-        <v>12395</v>
+        <v>12127</v>
       </c>
       <c r="F22">
         <v>2499</v>
       </c>
       <c r="G22" s="3">
-        <f>(F22+1)/(E22-D22)*1000</f>
-        <v>349.89503149055287</v>
+        <f t="shared" si="0"/>
+        <v>350.04200504060492</v>
       </c>
       <c r="H22">
-        <v>55903</v>
+        <v>5262</v>
       </c>
       <c r="I22">
-        <v>44.834522981713498</v>
+        <v>55.509725348513903</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -12366,29 +12376,29 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D23">
-        <v>5180</v>
+        <v>5250</v>
       </c>
       <c r="E23">
-        <v>12326</v>
+        <v>12395</v>
       </c>
       <c r="F23">
         <v>2499</v>
       </c>
       <c r="G23" s="3">
-        <f>(F23+1)/(E23-D23)*1000</f>
-        <v>349.84606773019874</v>
+        <f t="shared" si="0"/>
+        <v>349.89503149055287</v>
       </c>
       <c r="H23">
-        <v>16520</v>
+        <v>55903</v>
       </c>
       <c r="I23">
-        <v>50.677176912107399</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -12399,26 +12409,26 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>4994</v>
+        <v>5180</v>
       </c>
       <c r="E24">
-        <v>12150</v>
+        <v>12326</v>
       </c>
       <c r="F24">
         <v>2499</v>
       </c>
       <c r="G24" s="3">
-        <f>(F24+1)/(E24-D24)*1000</f>
-        <v>349.35718278367807</v>
+        <f t="shared" si="0"/>
+        <v>349.84606773019874</v>
       </c>
       <c r="H24">
-        <v>11038</v>
+        <v>16520</v>
       </c>
       <c r="I24">
-        <v>53.034684605199701</v>
+        <v>50.677176912107399</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -12426,29 +12436,29 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>5335</v>
+        <v>4994</v>
       </c>
       <c r="E25">
-        <v>12492</v>
+        <v>12150</v>
       </c>
       <c r="F25">
         <v>2499</v>
       </c>
       <c r="G25" s="3">
-        <f>(F25+1)/(E25-D25)*1000</f>
-        <v>349.30836942853148</v>
+        <f t="shared" si="0"/>
+        <v>349.35718278367807</v>
       </c>
       <c r="H25">
-        <v>23855</v>
+        <v>11038</v>
       </c>
       <c r="I25">
-        <v>49.660165253168302</v>
+        <v>53.034684605199701</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -12456,29 +12466,29 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D26">
-        <v>5255</v>
+        <v>5335</v>
       </c>
       <c r="E26">
-        <v>12426</v>
+        <v>12492</v>
       </c>
       <c r="F26">
         <v>2499</v>
       </c>
       <c r="G26" s="3">
-        <f>(F26+1)/(E26-D26)*1000</f>
-        <v>348.62641193696834</v>
+        <f t="shared" si="0"/>
+        <v>349.30836942853148</v>
       </c>
       <c r="H26">
-        <v>16399</v>
+        <v>23855</v>
       </c>
       <c r="I26">
-        <v>50.820690561240802</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -12486,29 +12496,29 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C27">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>5037</v>
+        <v>5255</v>
       </c>
       <c r="E27">
-        <v>12219</v>
+        <v>12426</v>
       </c>
       <c r="F27">
         <v>2499</v>
       </c>
       <c r="G27" s="3">
-        <f>(F27+1)/(E27-D27)*1000</f>
-        <v>348.09245335561121</v>
+        <f t="shared" si="0"/>
+        <v>348.62641193696834</v>
       </c>
       <c r="H27">
-        <v>5004</v>
+        <v>16399</v>
       </c>
       <c r="I27">
-        <v>55.667527051436103</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -12516,29 +12526,29 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>128</v>
       </c>
       <c r="D28">
-        <v>5449</v>
+        <v>5037</v>
       </c>
       <c r="E28">
-        <v>12645</v>
+        <v>12219</v>
       </c>
       <c r="F28">
         <v>2499</v>
       </c>
       <c r="G28" s="3">
-        <f>(F28+1)/(E28-D28)*1000</f>
-        <v>347.41523068371316</v>
+        <f t="shared" si="0"/>
+        <v>348.09245335561121</v>
       </c>
       <c r="H28">
-        <v>2064</v>
+        <v>5004</v>
       </c>
       <c r="I28">
-        <v>59.403880796969098</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -12546,29 +12556,29 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C29">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>5035</v>
+        <v>5449</v>
       </c>
       <c r="E29">
-        <v>12236</v>
+        <v>12645</v>
       </c>
       <c r="F29">
         <v>2499</v>
       </c>
       <c r="G29" s="3">
-        <f>(F29+1)/(E29-D29)*1000</f>
-        <v>347.17400361060965</v>
+        <f t="shared" si="0"/>
+        <v>347.41523068371316</v>
       </c>
       <c r="H29">
-        <v>10862</v>
+        <v>2064</v>
       </c>
       <c r="I29">
-        <v>53.2450287974874</v>
+        <v>59.403880796969098</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -12576,29 +12586,29 @@
         <v>32</v>
       </c>
       <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
         <v>256</v>
       </c>
-      <c r="C30">
-        <v>64</v>
-      </c>
       <c r="D30">
-        <v>5111</v>
+        <v>5035</v>
       </c>
       <c r="E30">
-        <v>12339</v>
+        <v>12236</v>
       </c>
       <c r="F30">
         <v>2499</v>
       </c>
       <c r="G30" s="3">
-        <f>(F30+1)/(E30-D30)*1000</f>
-        <v>345.87714443829555</v>
+        <f t="shared" si="0"/>
+        <v>347.17400361060965</v>
       </c>
       <c r="H30">
-        <v>4106</v>
+        <v>10862</v>
       </c>
       <c r="I30">
-        <v>56.855660907782898</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -12606,29 +12616,29 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>5260</v>
+        <v>5111</v>
       </c>
       <c r="E31">
-        <v>12496</v>
+        <v>12339</v>
       </c>
       <c r="F31">
         <v>2499</v>
       </c>
       <c r="G31" s="3">
-        <f>(F31+1)/(E31-D31)*1000</f>
-        <v>345.4947484798231</v>
+        <f t="shared" si="0"/>
+        <v>345.87714443829555</v>
       </c>
       <c r="H31">
-        <v>55903</v>
+        <v>4106</v>
       </c>
       <c r="I31">
-        <v>44.834522981713498</v>
+        <v>56.855660907782898</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -12636,29 +12646,29 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>5490</v>
+        <v>5260</v>
       </c>
       <c r="E32">
-        <v>12754</v>
+        <v>12496</v>
       </c>
       <c r="F32">
         <v>2499</v>
       </c>
       <c r="G32" s="3">
-        <f>(F32+1)/(E32-D32)*1000</f>
-        <v>344.16299559471366</v>
+        <f t="shared" si="0"/>
+        <v>345.4947484798231</v>
       </c>
       <c r="H32">
-        <v>32788</v>
+        <v>55903</v>
       </c>
       <c r="I32">
-        <v>45.842384753024398</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -12666,29 +12676,29 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C33">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>4951</v>
+        <v>5490</v>
       </c>
       <c r="E33">
-        <v>12223</v>
+        <v>12754</v>
       </c>
       <c r="F33">
         <v>2499</v>
       </c>
       <c r="G33" s="3">
-        <f>(F33+1)/(E33-D33)*1000</f>
-        <v>343.78437843784377</v>
+        <f t="shared" si="0"/>
+        <v>344.16299559471366</v>
       </c>
       <c r="H33">
-        <v>5004</v>
+        <v>32788</v>
       </c>
       <c r="I33">
-        <v>55.667527051436103</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12696,29 +12706,29 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="D34">
-        <v>5406</v>
+        <v>4951</v>
       </c>
       <c r="E34">
-        <v>12724</v>
+        <v>12223</v>
       </c>
       <c r="F34">
         <v>2499</v>
       </c>
       <c r="G34" s="3">
-        <f>(F34+1)/(E34-D34)*1000</f>
-        <v>341.62339437004647</v>
+        <f t="shared" ref="G34:G65" si="1">(F34+1)/(E34-D34)*1000</f>
+        <v>343.78437843784377</v>
       </c>
       <c r="H34">
-        <v>32788</v>
+        <v>5004</v>
       </c>
       <c r="I34">
-        <v>45.842384753024398</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -12726,29 +12736,29 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C35">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>5218</v>
+        <v>5406</v>
       </c>
       <c r="E35">
-        <v>12560</v>
+        <v>12724</v>
       </c>
       <c r="F35">
         <v>2499</v>
       </c>
       <c r="G35" s="3">
-        <f>(F35+1)/(E35-D35)*1000</f>
-        <v>340.50667393080903</v>
+        <f t="shared" si="1"/>
+        <v>341.62339437004647</v>
       </c>
       <c r="H35">
-        <v>55903</v>
+        <v>32788</v>
       </c>
       <c r="I35">
-        <v>44.834522981713498</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -12756,29 +12766,29 @@
         <v>32</v>
       </c>
       <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
         <v>256</v>
       </c>
-      <c r="C36">
-        <v>512</v>
-      </c>
       <c r="D36">
-        <v>5206</v>
+        <v>5218</v>
       </c>
       <c r="E36">
-        <v>12548</v>
+        <v>12560</v>
       </c>
       <c r="F36">
         <v>2499</v>
       </c>
       <c r="G36" s="3">
-        <f>(F36+1)/(E36-D36)*1000</f>
+        <f t="shared" si="1"/>
         <v>340.50667393080903</v>
       </c>
       <c r="H36">
-        <v>1052</v>
+        <v>55903</v>
       </c>
       <c r="I36">
-        <v>60.4305701786786</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -12786,179 +12796,179 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D37">
-        <v>5157</v>
+        <v>5206</v>
       </c>
       <c r="E37">
-        <v>12503</v>
+        <v>12548</v>
       </c>
       <c r="F37">
         <v>2499</v>
       </c>
       <c r="G37" s="3">
-        <f>(F37+1)/(E37-D37)*1000</f>
-        <v>340.32126327252928</v>
+        <f t="shared" si="1"/>
+        <v>340.50667393080903</v>
       </c>
       <c r="H37">
-        <v>55903</v>
+        <v>1052</v>
       </c>
       <c r="I37">
-        <v>44.834522981713498</v>
+        <v>60.4305701786786</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>10909</v>
+        <v>5157</v>
       </c>
       <c r="E38">
-        <v>18276</v>
+        <v>12503</v>
       </c>
       <c r="F38">
         <v>2499</v>
       </c>
       <c r="G38" s="3">
-        <f>(F38+1)/(E38-D38)*1000</f>
-        <v>339.35116058096918</v>
+        <f t="shared" si="1"/>
+        <v>340.32126327252928</v>
       </c>
       <c r="H38">
-        <v>2497</v>
+        <v>55903</v>
       </c>
       <c r="I38">
-        <v>58.3551191894665</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C39">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D39">
-        <v>5342</v>
+        <v>10909</v>
       </c>
       <c r="E39">
-        <v>12732</v>
+        <v>18276</v>
       </c>
       <c r="F39">
         <v>2499</v>
       </c>
       <c r="G39" s="3">
-        <f>(F39+1)/(E39-D39)*1000</f>
-        <v>338.2949932341001</v>
+        <f t="shared" si="1"/>
+        <v>339.35116058096918</v>
       </c>
       <c r="H39">
-        <v>55903</v>
+        <v>2497</v>
       </c>
       <c r="I39">
-        <v>44.834522981713498</v>
+        <v>58.3551191894665</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
         <v>64</v>
       </c>
-      <c r="C40">
-        <v>256</v>
-      </c>
       <c r="D40">
-        <v>12026</v>
+        <v>5342</v>
       </c>
       <c r="E40">
-        <v>19418</v>
+        <v>12732</v>
       </c>
       <c r="F40">
         <v>2499</v>
       </c>
       <c r="G40" s="3">
-        <f>(F40+1)/(E40-D40)*1000</f>
-        <v>338.20346320346323</v>
+        <f t="shared" si="1"/>
+        <v>338.2949932341001</v>
       </c>
       <c r="H40">
-        <v>5004</v>
+        <v>55903</v>
       </c>
       <c r="I40">
-        <v>55.667527051436103</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>256</v>
       </c>
       <c r="D41">
-        <v>5362</v>
+        <v>12026</v>
       </c>
       <c r="E41">
-        <v>12778</v>
+        <v>19418</v>
       </c>
       <c r="F41">
         <v>2499</v>
       </c>
       <c r="G41" s="3">
-        <f>(F41+1)/(E41-D41)*1000</f>
-        <v>337.10895361380801</v>
+        <f t="shared" si="1"/>
+        <v>338.20346320346323</v>
       </c>
       <c r="H41">
-        <v>1198</v>
+        <v>5004</v>
       </c>
       <c r="I41">
-        <v>60.098365947166897</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B42">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D42">
-        <v>12376</v>
+        <v>5362</v>
       </c>
       <c r="E42">
-        <v>19800</v>
+        <v>12778</v>
       </c>
       <c r="F42">
         <v>2499</v>
       </c>
       <c r="G42" s="3">
-        <f>(F42+1)/(E42-D42)*1000</f>
-        <v>336.74568965517244</v>
+        <f t="shared" si="1"/>
+        <v>337.10895361380801</v>
       </c>
       <c r="H42">
-        <v>32788</v>
+        <v>1198</v>
       </c>
       <c r="I42">
-        <v>45.842384753024398</v>
+        <v>60.098365947166897</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -12969,56 +12979,56 @@
         <v>64</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>12134</v>
+        <v>12376</v>
       </c>
       <c r="E43">
-        <v>19573</v>
+        <v>19800</v>
       </c>
       <c r="F43">
         <v>2499</v>
       </c>
       <c r="G43" s="3">
-        <f>(F43+1)/(E43-D43)*1000</f>
-        <v>336.06667562844467</v>
+        <f t="shared" si="1"/>
+        <v>336.74568965517244</v>
       </c>
       <c r="H43">
-        <v>16399</v>
+        <v>32788</v>
       </c>
       <c r="I43">
-        <v>50.820690561240802</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>16</v>
       </c>
       <c r="D44">
-        <v>5413</v>
+        <v>12134</v>
       </c>
       <c r="E44">
-        <v>12856</v>
+        <v>19573</v>
       </c>
       <c r="F44">
         <v>2499</v>
       </c>
       <c r="G44" s="3">
-        <f>(F44+1)/(E44-D44)*1000</f>
-        <v>335.88606744592238</v>
+        <f t="shared" si="1"/>
+        <v>336.06667562844467</v>
       </c>
       <c r="H44">
-        <v>23893</v>
+        <v>16399</v>
       </c>
       <c r="I44">
-        <v>49.581888470757299</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -13026,59 +13036,59 @@
         <v>32</v>
       </c>
       <c r="B45">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>5229</v>
+        <v>5413</v>
       </c>
       <c r="E45">
-        <v>12693</v>
+        <v>12856</v>
       </c>
       <c r="F45">
         <v>2499</v>
       </c>
       <c r="G45" s="3">
-        <f>(F45+1)/(E45-D45)*1000</f>
-        <v>334.94105037513401</v>
+        <f t="shared" si="1"/>
+        <v>335.88606744592238</v>
       </c>
       <c r="H45">
-        <v>8203</v>
+        <v>23893</v>
       </c>
       <c r="I45">
-        <v>54.216030644869697</v>
+        <v>49.581888470757299</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C46">
         <v>32</v>
       </c>
       <c r="D46">
-        <v>12369</v>
+        <v>5229</v>
       </c>
       <c r="E46">
-        <v>19837</v>
+        <v>12693</v>
       </c>
       <c r="F46">
         <v>2499</v>
       </c>
       <c r="G46" s="3">
-        <f>(F46+1)/(E46-D46)*1000</f>
-        <v>334.76164970540975</v>
+        <f t="shared" si="1"/>
+        <v>334.94105037513401</v>
       </c>
       <c r="H46">
-        <v>8245</v>
+        <v>8203</v>
       </c>
       <c r="I46">
-        <v>54.016567328543601</v>
+        <v>54.216030644869697</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -13086,89 +13096,89 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>12287</v>
+        <v>12369</v>
       </c>
       <c r="E47">
-        <v>19762</v>
+        <v>19837</v>
       </c>
       <c r="F47">
         <v>2499</v>
       </c>
       <c r="G47" s="3">
-        <f>(F47+1)/(E47-D47)*1000</f>
-        <v>334.44816053511704</v>
+        <f t="shared" si="1"/>
+        <v>334.76164970540975</v>
       </c>
       <c r="H47">
-        <v>23855</v>
+        <v>8245</v>
       </c>
       <c r="I47">
-        <v>49.660165253168302</v>
+        <v>54.016567328543601</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>5472</v>
+        <v>12287</v>
       </c>
       <c r="E48">
-        <v>12948</v>
+        <v>19762</v>
       </c>
       <c r="F48">
         <v>2499</v>
       </c>
       <c r="G48" s="3">
-        <f>(F48+1)/(E48-D48)*1000</f>
-        <v>334.40342429106471</v>
+        <f t="shared" si="1"/>
+        <v>334.44816053511704</v>
       </c>
       <c r="H48">
-        <v>10862</v>
+        <v>23855</v>
       </c>
       <c r="I48">
-        <v>53.2450287974874</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>128</v>
       </c>
       <c r="D49">
-        <v>12396</v>
+        <v>5472</v>
       </c>
       <c r="E49">
-        <v>19880</v>
+        <v>12948</v>
       </c>
       <c r="F49">
         <v>2499</v>
       </c>
       <c r="G49" s="3">
-        <f>(F49+1)/(E49-D49)*1000</f>
-        <v>334.04596472474611</v>
+        <f t="shared" si="1"/>
+        <v>334.40342429106471</v>
       </c>
       <c r="H49">
-        <v>55903</v>
+        <v>10862</v>
       </c>
       <c r="I49">
-        <v>44.834522981713498</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13176,29 +13186,29 @@
         <v>16</v>
       </c>
       <c r="B50">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>128</v>
       </c>
       <c r="D50">
-        <v>12223</v>
+        <v>12396</v>
       </c>
       <c r="E50">
-        <v>19709</v>
+        <v>19880</v>
       </c>
       <c r="F50">
         <v>2499</v>
       </c>
       <c r="G50" s="3">
-        <f>(F50+1)/(E50-D50)*1000</f>
-        <v>333.95671920919051</v>
+        <f t="shared" si="1"/>
+        <v>334.04596472474611</v>
       </c>
       <c r="H50">
-        <v>5004</v>
+        <v>55903</v>
       </c>
       <c r="I50">
-        <v>55.667527051436103</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -13206,29 +13216,29 @@
         <v>16</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D51">
-        <v>12499</v>
+        <v>12223</v>
       </c>
       <c r="E51">
-        <v>20010</v>
+        <v>19709</v>
       </c>
       <c r="F51">
         <v>2499</v>
       </c>
       <c r="G51" s="3">
-        <f>(F51+1)/(E51-D51)*1000</f>
-        <v>332.84516043136728</v>
+        <f t="shared" si="1"/>
+        <v>333.95671920919051</v>
       </c>
       <c r="H51">
-        <v>55903</v>
+        <v>5004</v>
       </c>
       <c r="I51">
-        <v>44.834522981713498</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -13239,20 +13249,20 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>12562</v>
+        <v>12499</v>
       </c>
       <c r="E52">
-        <v>20095</v>
+        <v>20010</v>
       </c>
       <c r="F52">
         <v>2499</v>
       </c>
       <c r="G52" s="3">
-        <f>(F52+1)/(E52-D52)*1000</f>
-        <v>331.87309172972255</v>
+        <f t="shared" si="1"/>
+        <v>332.84516043136728</v>
       </c>
       <c r="H52">
         <v>55903</v>
@@ -13266,29 +13276,29 @@
         <v>16</v>
       </c>
       <c r="B53">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="D53">
-        <v>12151</v>
+        <v>12562</v>
       </c>
       <c r="E53">
-        <v>19689</v>
+        <v>20095</v>
       </c>
       <c r="F53">
         <v>2499</v>
       </c>
       <c r="G53" s="3">
-        <f>(F53+1)/(E53-D53)*1000</f>
-        <v>331.65295834438842</v>
+        <f t="shared" si="1"/>
+        <v>331.87309172972255</v>
       </c>
       <c r="H53">
-        <v>11038</v>
+        <v>55903</v>
       </c>
       <c r="I53">
-        <v>53.034684605199701</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -13299,26 +13309,26 @@
         <v>32</v>
       </c>
       <c r="C54">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>12090</v>
+        <v>12151</v>
       </c>
       <c r="E54">
-        <v>19629</v>
+        <v>19689</v>
       </c>
       <c r="F54">
         <v>2499</v>
       </c>
       <c r="G54" s="3">
-        <f>(F54+1)/(E54-D54)*1000</f>
-        <v>331.60896670645974</v>
+        <f t="shared" si="1"/>
+        <v>331.65295834438842</v>
       </c>
       <c r="H54">
-        <v>10862</v>
+        <v>11038</v>
       </c>
       <c r="I54">
-        <v>53.2450287974874</v>
+        <v>53.034684605199701</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -13326,29 +13336,29 @@
         <v>16</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C55">
         <v>64</v>
       </c>
       <c r="D55">
-        <v>12734</v>
+        <v>12090</v>
       </c>
       <c r="E55">
-        <v>20284</v>
+        <v>19629</v>
       </c>
       <c r="F55">
         <v>2499</v>
       </c>
       <c r="G55" s="3">
-        <f>(F55+1)/(E55-D55)*1000</f>
-        <v>331.12582781456956</v>
+        <f t="shared" si="1"/>
+        <v>331.60896670645974</v>
       </c>
       <c r="H55">
-        <v>55903</v>
+        <v>10862</v>
       </c>
       <c r="I55">
-        <v>44.834522981713498</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -13356,29 +13366,29 @@
         <v>16</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D56">
-        <v>12254</v>
+        <v>12734</v>
       </c>
       <c r="E56">
-        <v>19813</v>
+        <v>20284</v>
       </c>
       <c r="F56">
         <v>2499</v>
       </c>
       <c r="G56" s="3">
-        <f>(F56+1)/(E56-D56)*1000</f>
-        <v>330.73157825109138</v>
+        <f t="shared" si="1"/>
+        <v>331.12582781456956</v>
       </c>
       <c r="H56">
-        <v>23855</v>
+        <v>55903</v>
       </c>
       <c r="I56">
-        <v>49.660165253168302</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -13386,29 +13396,29 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>12129</v>
+        <v>12254</v>
       </c>
       <c r="E57">
-        <v>19713</v>
+        <v>19813</v>
       </c>
       <c r="F57">
         <v>2499</v>
       </c>
       <c r="G57" s="3">
-        <f>(F57+1)/(E57-D57)*1000</f>
-        <v>329.64135021097047</v>
+        <f t="shared" si="1"/>
+        <v>330.73157825109138</v>
       </c>
       <c r="H57">
-        <v>5262</v>
+        <v>23855</v>
       </c>
       <c r="I57">
-        <v>55.509725348513903</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -13416,29 +13426,29 @@
         <v>16</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>12353</v>
+        <v>12129</v>
       </c>
       <c r="E58">
-        <v>19941</v>
+        <v>19713</v>
       </c>
       <c r="F58">
         <v>2499</v>
       </c>
       <c r="G58" s="3">
-        <f>(F58+1)/(E58-D58)*1000</f>
-        <v>329.46758039008961</v>
+        <f t="shared" si="1"/>
+        <v>329.64135021097047</v>
       </c>
       <c r="H58">
-        <v>55903</v>
+        <v>5262</v>
       </c>
       <c r="I58">
-        <v>44.834522981713498</v>
+        <v>55.509725348513903</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -13446,29 +13456,29 @@
         <v>16</v>
       </c>
       <c r="B59">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D59">
-        <v>12647</v>
+        <v>12353</v>
       </c>
       <c r="E59">
-        <v>20238</v>
+        <v>19941</v>
       </c>
       <c r="F59">
         <v>2499</v>
       </c>
       <c r="G59" s="3">
-        <f>(F59+1)/(E59-D59)*1000</f>
-        <v>329.33737320511131</v>
+        <f t="shared" si="1"/>
+        <v>329.46758039008961</v>
       </c>
       <c r="H59">
-        <v>2064</v>
+        <v>55903</v>
       </c>
       <c r="I59">
-        <v>59.403880796969098</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -13476,29 +13486,29 @@
         <v>16</v>
       </c>
       <c r="B60">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C60">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D60">
-        <v>12094</v>
+        <v>12647</v>
       </c>
       <c r="E60">
-        <v>19686</v>
+        <v>20238</v>
       </c>
       <c r="F60">
         <v>2499</v>
       </c>
       <c r="G60" s="3">
-        <f>(F60+1)/(E60-D60)*1000</f>
-        <v>329.29399367755531</v>
+        <f t="shared" si="1"/>
+        <v>329.33737320511131</v>
       </c>
       <c r="H60">
-        <v>10862</v>
+        <v>2064</v>
       </c>
       <c r="I60">
-        <v>53.2450287974874</v>
+        <v>59.403880796969098</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -13506,29 +13516,29 @@
         <v>16</v>
       </c>
       <c r="B61">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>512</v>
       </c>
       <c r="D61">
-        <v>12308</v>
+        <v>12094</v>
       </c>
       <c r="E61">
-        <v>19935</v>
+        <v>19686</v>
       </c>
       <c r="F61">
         <v>2499</v>
       </c>
       <c r="G61" s="3">
-        <f>(F61+1)/(E61-D61)*1000</f>
-        <v>327.78287662252524</v>
+        <f t="shared" si="1"/>
+        <v>329.29399367755531</v>
       </c>
       <c r="H61">
-        <v>2267</v>
+        <v>10862</v>
       </c>
       <c r="I61">
-        <v>58.900601280725802</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -13536,29 +13546,29 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D62">
-        <v>12505</v>
+        <v>12308</v>
       </c>
       <c r="E62">
-        <v>20140</v>
+        <v>19935</v>
       </c>
       <c r="F62">
         <v>2499</v>
       </c>
       <c r="G62" s="3">
-        <f>(F62+1)/(E62-D62)*1000</f>
-        <v>327.43942370661426</v>
+        <f t="shared" si="1"/>
+        <v>327.78287662252524</v>
       </c>
       <c r="H62">
-        <v>55903</v>
+        <v>2267</v>
       </c>
       <c r="I62">
-        <v>44.834522981713498</v>
+        <v>58.900601280725802</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -13566,29 +13576,29 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D63">
-        <v>12329</v>
+        <v>12505</v>
       </c>
       <c r="E63">
-        <v>19971</v>
+        <v>20140</v>
       </c>
       <c r="F63">
         <v>2499</v>
       </c>
       <c r="G63" s="3">
-        <f>(F63+1)/(E63-D63)*1000</f>
-        <v>327.13949227950798</v>
+        <f t="shared" si="1"/>
+        <v>327.43942370661426</v>
       </c>
       <c r="H63">
-        <v>16520</v>
+        <v>55903</v>
       </c>
       <c r="I63">
-        <v>50.677176912107399</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -13599,26 +13609,26 @@
         <v>32</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>12194</v>
+        <v>12329</v>
       </c>
       <c r="E64">
-        <v>19848</v>
+        <v>19971</v>
       </c>
       <c r="F64">
         <v>2499</v>
       </c>
       <c r="G64" s="3">
-        <f>(F64+1)/(E64-D64)*1000</f>
-        <v>326.62660047034228</v>
+        <f t="shared" si="1"/>
+        <v>327.13949227950798</v>
       </c>
       <c r="H64">
-        <v>32788</v>
+        <v>16520</v>
       </c>
       <c r="I64">
-        <v>45.842384753024398</v>
+        <v>50.677176912107399</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -13626,29 +13636,29 @@
         <v>16</v>
       </c>
       <c r="B65">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D65">
-        <v>11658</v>
+        <v>12194</v>
       </c>
       <c r="E65">
-        <v>19331</v>
+        <v>19848</v>
       </c>
       <c r="F65">
         <v>2499</v>
       </c>
       <c r="G65" s="3">
-        <f>(F65+1)/(E65-D65)*1000</f>
-        <v>325.81780268473869</v>
+        <f t="shared" si="1"/>
+        <v>326.62660047034228</v>
       </c>
       <c r="H65">
-        <v>2267</v>
+        <v>32788</v>
       </c>
       <c r="I65">
-        <v>58.900601280725802</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -13656,29 +13666,29 @@
         <v>16</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D66">
-        <v>12369</v>
+        <v>11658</v>
       </c>
       <c r="E66">
-        <v>20054</v>
+        <v>19331</v>
       </c>
       <c r="F66">
         <v>2499</v>
       </c>
       <c r="G66" s="3">
-        <f>(F66+1)/(E66-D66)*1000</f>
-        <v>325.30904359141181</v>
+        <f t="shared" ref="G66:G97" si="2">(F66+1)/(E66-D66)*1000</f>
+        <v>325.81780268473869</v>
       </c>
       <c r="H66">
-        <v>55903</v>
+        <v>2267</v>
       </c>
       <c r="I66">
-        <v>44.834522981713498</v>
+        <v>58.900601280725802</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -13686,29 +13696,29 @@
         <v>16</v>
       </c>
       <c r="B67">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67">
-        <v>12418</v>
+        <v>12369</v>
       </c>
       <c r="E67">
-        <v>20143</v>
+        <v>20054</v>
       </c>
       <c r="F67">
         <v>2499</v>
       </c>
       <c r="G67" s="3">
-        <f>(F67+1)/(E67-D67)*1000</f>
-        <v>323.62459546925567</v>
+        <f t="shared" si="2"/>
+        <v>325.30904359141181</v>
       </c>
       <c r="H67">
-        <v>33147</v>
+        <v>55903</v>
       </c>
       <c r="I67">
-        <v>45.2369227514749</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -13719,50 +13729,50 @@
         <v>16</v>
       </c>
       <c r="C68">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>12196</v>
+        <v>12418</v>
       </c>
       <c r="E68">
-        <v>19922</v>
+        <v>20143</v>
       </c>
       <c r="F68">
         <v>2499</v>
       </c>
       <c r="G68" s="3">
-        <f>(F68+1)/(E68-D68)*1000</f>
-        <v>323.58270774009839</v>
+        <f t="shared" si="2"/>
+        <v>323.62459546925567</v>
       </c>
       <c r="H68">
-        <v>23855</v>
+        <v>33147</v>
       </c>
       <c r="I68">
-        <v>49.660165253168302</v>
+        <v>45.2369227514749</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B69">
         <v>16</v>
       </c>
       <c r="C69">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D69">
-        <v>5808</v>
+        <v>12196</v>
       </c>
       <c r="E69">
-        <v>13557</v>
+        <v>19922</v>
       </c>
       <c r="F69">
         <v>2499</v>
       </c>
       <c r="G69" s="3">
-        <f>(F69+1)/(E69-D69)*1000</f>
-        <v>322.62227384178607</v>
+        <f t="shared" si="2"/>
+        <v>323.58270774009839</v>
       </c>
       <c r="H69">
         <v>23855</v>
@@ -13773,32 +13783,32 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>512</v>
       </c>
       <c r="D70">
-        <v>12550</v>
+        <v>5808</v>
       </c>
       <c r="E70">
-        <v>20330</v>
+        <v>13557</v>
       </c>
       <c r="F70">
         <v>2499</v>
       </c>
       <c r="G70" s="3">
-        <f>(F70+1)/(E70-D70)*1000</f>
-        <v>321.33676092544988</v>
+        <f t="shared" si="2"/>
+        <v>322.62227384178607</v>
       </c>
       <c r="H70">
-        <v>1052</v>
+        <v>23855</v>
       </c>
       <c r="I70">
-        <v>60.4305701786786</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -13809,26 +13819,26 @@
         <v>256</v>
       </c>
       <c r="C71">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D71">
-        <v>12780</v>
+        <v>12550</v>
       </c>
       <c r="E71">
-        <v>20586</v>
+        <v>20330</v>
       </c>
       <c r="F71">
         <v>2499</v>
       </c>
       <c r="G71" s="3">
-        <f>(F71+1)/(E71-D71)*1000</f>
-        <v>320.26646169613116</v>
+        <f t="shared" si="2"/>
+        <v>321.33676092544988</v>
       </c>
       <c r="H71">
-        <v>1198</v>
+        <v>1052</v>
       </c>
       <c r="I71">
-        <v>60.098365947166897</v>
+        <v>60.4305701786786</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -13836,29 +13846,29 @@
         <v>16</v>
       </c>
       <c r="B72">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="C72">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D72">
-        <v>11444</v>
+        <v>12780</v>
       </c>
       <c r="E72">
-        <v>19263</v>
+        <v>20586</v>
       </c>
       <c r="F72">
         <v>2499</v>
       </c>
       <c r="G72" s="3">
-        <f>(F72+1)/(E72-D72)*1000</f>
-        <v>319.7339813275355</v>
+        <f t="shared" si="2"/>
+        <v>320.26646169613116</v>
       </c>
       <c r="H72">
-        <v>4122</v>
+        <v>1198</v>
       </c>
       <c r="I72">
-        <v>56.7938516875952</v>
+        <v>60.098365947166897</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -13866,29 +13876,29 @@
         <v>16</v>
       </c>
       <c r="B73">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C73">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D73">
-        <v>12238</v>
+        <v>11444</v>
       </c>
       <c r="E73">
-        <v>20080</v>
+        <v>19263</v>
       </c>
       <c r="F73">
         <v>2499</v>
       </c>
       <c r="G73" s="3">
-        <f>(F73+1)/(E73-D73)*1000</f>
-        <v>318.79622545269063</v>
+        <f t="shared" si="2"/>
+        <v>319.7339813275355</v>
       </c>
       <c r="H73">
-        <v>10862</v>
+        <v>4122</v>
       </c>
       <c r="I73">
-        <v>53.2450287974874</v>
+        <v>56.7938516875952</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -13896,29 +13906,29 @@
         <v>16</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C74">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D74">
-        <v>12495</v>
+        <v>12238</v>
       </c>
       <c r="E74">
-        <v>20375</v>
+        <v>20080</v>
       </c>
       <c r="F74">
         <v>2499</v>
       </c>
       <c r="G74" s="3">
-        <f>(F74+1)/(E74-D74)*1000</f>
-        <v>317.25888324873097</v>
+        <f t="shared" si="2"/>
+        <v>318.79622545269063</v>
       </c>
       <c r="H74">
-        <v>23855</v>
+        <v>10862</v>
       </c>
       <c r="I74">
-        <v>49.660165253168302</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -13926,29 +13936,29 @@
         <v>16</v>
       </c>
       <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
         <v>128</v>
       </c>
-      <c r="C75">
-        <v>8</v>
-      </c>
       <c r="D75">
-        <v>12726</v>
+        <v>12495</v>
       </c>
       <c r="E75">
-        <v>20612</v>
+        <v>20375</v>
       </c>
       <c r="F75">
         <v>2499</v>
       </c>
       <c r="G75" s="3">
-        <f>(F75+1)/(E75-D75)*1000</f>
-        <v>317.01749936596502</v>
+        <f t="shared" si="2"/>
+        <v>317.25888324873097</v>
       </c>
       <c r="H75">
-        <v>32788</v>
+        <v>23855</v>
       </c>
       <c r="I75">
-        <v>45.842384753024398</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -13959,26 +13969,26 @@
         <v>128</v>
       </c>
       <c r="C76">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>11414</v>
+        <v>12726</v>
       </c>
       <c r="E76">
-        <v>19315</v>
+        <v>20612</v>
       </c>
       <c r="F76">
         <v>2499</v>
       </c>
       <c r="G76" s="3">
-        <f>(F76+1)/(E76-D76)*1000</f>
-        <v>316.41564358941906</v>
+        <f t="shared" si="2"/>
+        <v>317.01749936596502</v>
       </c>
       <c r="H76">
-        <v>8203</v>
+        <v>32788</v>
       </c>
       <c r="I76">
-        <v>54.216030644869697</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -13986,29 +13996,29 @@
         <v>16</v>
       </c>
       <c r="B77">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C77">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="D77">
-        <v>12225</v>
+        <v>11414</v>
       </c>
       <c r="E77">
-        <v>20131</v>
+        <v>19315</v>
       </c>
       <c r="F77">
         <v>2499</v>
       </c>
       <c r="G77" s="3">
-        <f>(F77+1)/(E77-D77)*1000</f>
-        <v>316.21553250695672</v>
+        <f t="shared" si="2"/>
+        <v>316.41564358941906</v>
       </c>
       <c r="H77">
-        <v>5004</v>
+        <v>8203</v>
       </c>
       <c r="I77">
-        <v>55.667527051436103</v>
+        <v>54.216030644869697</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -14016,29 +14026,29 @@
         <v>16</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D78">
-        <v>12858</v>
+        <v>12225</v>
       </c>
       <c r="E78">
-        <v>20777</v>
+        <v>20131</v>
       </c>
       <c r="F78">
         <v>2499</v>
       </c>
       <c r="G78" s="3">
-        <f>(F78+1)/(E78-D78)*1000</f>
-        <v>315.69642631645411</v>
+        <f t="shared" si="2"/>
+        <v>316.21553250695672</v>
       </c>
       <c r="H78">
-        <v>23893</v>
+        <v>5004</v>
       </c>
       <c r="I78">
-        <v>49.581888470757299</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -14046,29 +14056,29 @@
         <v>16</v>
       </c>
       <c r="B79">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>12756</v>
+        <v>12858</v>
       </c>
       <c r="E79">
-        <v>20686</v>
+        <v>20777</v>
       </c>
       <c r="F79">
         <v>2499</v>
       </c>
       <c r="G79" s="3">
-        <f>(F79+1)/(E79-D79)*1000</f>
-        <v>315.25851197982348</v>
+        <f t="shared" si="2"/>
+        <v>315.69642631645411</v>
       </c>
       <c r="H79">
-        <v>32788</v>
+        <v>23893</v>
       </c>
       <c r="I79">
-        <v>45.842384753024398</v>
+        <v>49.581888470757299</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -14079,26 +14089,26 @@
         <v>256</v>
       </c>
       <c r="C80">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>12340</v>
+        <v>12756</v>
       </c>
       <c r="E80">
-        <v>20272</v>
+        <v>20686</v>
       </c>
       <c r="F80">
         <v>2499</v>
       </c>
       <c r="G80" s="3">
-        <f>(F80+1)/(E80-D80)*1000</f>
-        <v>315.17902168431669</v>
+        <f t="shared" si="2"/>
+        <v>315.25851197982348</v>
       </c>
       <c r="H80">
-        <v>4106</v>
+        <v>32788</v>
       </c>
       <c r="I80">
-        <v>56.855660907782898</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -14109,26 +14119,26 @@
         <v>256</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D81">
-        <v>12428</v>
+        <v>12340</v>
       </c>
       <c r="E81">
-        <v>20393</v>
+        <v>20272</v>
       </c>
       <c r="F81">
         <v>2499</v>
       </c>
       <c r="G81" s="3">
-        <f>(F81+1)/(E81-D81)*1000</f>
-        <v>313.87319522912742</v>
+        <f t="shared" si="2"/>
+        <v>315.17902168431669</v>
       </c>
       <c r="H81">
-        <v>16399</v>
+        <v>4106</v>
       </c>
       <c r="I81">
-        <v>50.820690561240802</v>
+        <v>56.855660907782898</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -14139,56 +14149,56 @@
         <v>256</v>
       </c>
       <c r="C82">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D82">
-        <v>12696</v>
+        <v>12428</v>
       </c>
       <c r="E82">
-        <v>20702</v>
+        <v>20393</v>
       </c>
       <c r="F82">
         <v>2499</v>
       </c>
       <c r="G82" s="3">
-        <f>(F82+1)/(E82-D82)*1000</f>
-        <v>312.26580064951287</v>
+        <f t="shared" si="2"/>
+        <v>313.87319522912742</v>
       </c>
       <c r="H82">
-        <v>8203</v>
+        <v>16399</v>
       </c>
       <c r="I82">
-        <v>54.216030644869697</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C83">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D83">
-        <v>20377</v>
+        <v>12696</v>
       </c>
       <c r="E83">
-        <v>28394</v>
+        <v>20702</v>
       </c>
       <c r="F83">
         <v>2499</v>
       </c>
       <c r="G83" s="3">
-        <f>(F83+1)/(E83-D83)*1000</f>
-        <v>311.83734564051389</v>
+        <f t="shared" si="2"/>
+        <v>312.26580064951287</v>
       </c>
       <c r="H83">
-        <v>23855</v>
+        <v>8203</v>
       </c>
       <c r="I83">
-        <v>49.660165253168302</v>
+        <v>54.216030644869697</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -14196,29 +14206,29 @@
         <v>8</v>
       </c>
       <c r="B84">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C84">
         <v>128</v>
       </c>
       <c r="D84">
-        <v>18278</v>
+        <v>20377</v>
       </c>
       <c r="E84">
-        <v>26300</v>
+        <v>28394</v>
       </c>
       <c r="F84">
         <v>2499</v>
       </c>
       <c r="G84" s="3">
-        <f>(F84+1)/(E84-D84)*1000</f>
-        <v>311.64298180004982</v>
+        <f t="shared" si="2"/>
+        <v>311.83734564051389</v>
       </c>
       <c r="H84">
-        <v>2497</v>
+        <v>23855</v>
       </c>
       <c r="I84">
-        <v>58.3551191894665</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -14226,29 +14236,29 @@
         <v>8</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D85">
-        <v>20013</v>
+        <v>18278</v>
       </c>
       <c r="E85">
-        <v>28066</v>
+        <v>26300</v>
       </c>
       <c r="F85">
         <v>2499</v>
       </c>
       <c r="G85" s="3">
-        <f>(F85+1)/(E85-D85)*1000</f>
-        <v>310.44331305103691</v>
+        <f t="shared" si="2"/>
+        <v>311.64298180004982</v>
       </c>
       <c r="H85">
-        <v>55903</v>
+        <v>2497</v>
       </c>
       <c r="I85">
-        <v>44.834522981713498</v>
+        <v>58.3551191894665</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -14256,89 +14266,89 @@
         <v>8</v>
       </c>
       <c r="B86">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>19802</v>
+        <v>20013</v>
       </c>
       <c r="E86">
-        <v>27870</v>
+        <v>28066</v>
       </c>
       <c r="F86">
         <v>2499</v>
       </c>
       <c r="G86" s="3">
-        <f>(F86+1)/(E86-D86)*1000</f>
-        <v>309.86613782845814</v>
+        <f t="shared" si="2"/>
+        <v>310.44331305103691</v>
       </c>
       <c r="H86">
-        <v>32788</v>
+        <v>55903</v>
       </c>
       <c r="I86">
-        <v>45.842384753024398</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B87">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>11056</v>
+        <v>19802</v>
       </c>
       <c r="E87">
-        <v>19126</v>
+        <v>27870</v>
       </c>
       <c r="F87">
         <v>2499</v>
       </c>
       <c r="G87" s="3">
-        <f>(F87+1)/(E87-D87)*1000</f>
-        <v>309.7893432465923</v>
+        <f t="shared" si="2"/>
+        <v>309.86613782845814</v>
       </c>
       <c r="H87">
-        <v>16399</v>
+        <v>32788</v>
       </c>
       <c r="I87">
-        <v>50.820690561240802</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C88">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>20098</v>
+        <v>11056</v>
       </c>
       <c r="E88">
-        <v>28171</v>
+        <v>19126</v>
       </c>
       <c r="F88">
         <v>2499</v>
       </c>
       <c r="G88" s="3">
-        <f>(F88+1)/(E88-D88)*1000</f>
-        <v>309.67422271770096</v>
+        <f t="shared" si="2"/>
+        <v>309.7893432465923</v>
       </c>
       <c r="H88">
-        <v>55903</v>
+        <v>16399</v>
       </c>
       <c r="I88">
-        <v>44.834522981713498</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -14346,29 +14356,29 @@
         <v>8</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D89">
-        <v>19630</v>
+        <v>20098</v>
       </c>
       <c r="E89">
-        <v>27728</v>
+        <v>28171</v>
       </c>
       <c r="F89">
         <v>2499</v>
       </c>
       <c r="G89" s="3">
-        <f>(F89+1)/(E89-D89)*1000</f>
-        <v>308.71820202519137</v>
+        <f t="shared" si="2"/>
+        <v>309.67422271770096</v>
       </c>
       <c r="H89">
-        <v>10862</v>
+        <v>55903</v>
       </c>
       <c r="I89">
-        <v>53.2450287974874</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -14376,29 +14386,29 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D90">
-        <v>20144</v>
+        <v>19630</v>
       </c>
       <c r="E90">
-        <v>28251</v>
+        <v>27728</v>
       </c>
       <c r="F90">
         <v>2499</v>
       </c>
       <c r="G90" s="3">
-        <f>(F90+1)/(E90-D90)*1000</f>
-        <v>308.37547798199091</v>
+        <f t="shared" si="2"/>
+        <v>308.71820202519137</v>
       </c>
       <c r="H90">
-        <v>55903</v>
+        <v>10862</v>
       </c>
       <c r="I90">
-        <v>44.834522981713498</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -14406,29 +14416,29 @@
         <v>8</v>
       </c>
       <c r="B91">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D91">
-        <v>19715</v>
+        <v>20144</v>
       </c>
       <c r="E91">
-        <v>27826</v>
+        <v>28251</v>
       </c>
       <c r="F91">
         <v>2499</v>
       </c>
       <c r="G91" s="3">
-        <f>(F91+1)/(E91-D91)*1000</f>
-        <v>308.22340032055234</v>
+        <f t="shared" si="2"/>
+        <v>308.37547798199091</v>
       </c>
       <c r="H91">
-        <v>5262</v>
+        <v>55903</v>
       </c>
       <c r="I91">
-        <v>55.509725348513903</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -14436,29 +14446,29 @@
         <v>8</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D92">
-        <v>20145</v>
+        <v>19715</v>
       </c>
       <c r="E92">
-        <v>28257</v>
+        <v>27826</v>
       </c>
       <c r="F92">
         <v>2499</v>
       </c>
       <c r="G92" s="3">
-        <f>(F92+1)/(E92-D92)*1000</f>
-        <v>308.18540433925051</v>
+        <f t="shared" si="2"/>
+        <v>308.22340032055234</v>
       </c>
       <c r="H92">
-        <v>33147</v>
+        <v>5262</v>
       </c>
       <c r="I92">
-        <v>45.2369227514749</v>
+        <v>55.509725348513903</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -14466,29 +14476,29 @@
         <v>8</v>
       </c>
       <c r="B93">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C93">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>19421</v>
+        <v>20145</v>
       </c>
       <c r="E93">
-        <v>27533</v>
+        <v>28257</v>
       </c>
       <c r="F93">
         <v>2499</v>
       </c>
       <c r="G93" s="3">
-        <f>(F93+1)/(E93-D93)*1000</f>
+        <f t="shared" si="2"/>
         <v>308.18540433925051</v>
       </c>
       <c r="H93">
-        <v>5004</v>
+        <v>33147</v>
       </c>
       <c r="I93">
-        <v>55.667527051436103</v>
+        <v>45.2369227514749</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -14499,20 +14509,20 @@
         <v>64</v>
       </c>
       <c r="C94">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D94">
-        <v>20133</v>
+        <v>19421</v>
       </c>
       <c r="E94">
-        <v>28264</v>
+        <v>27533</v>
       </c>
       <c r="F94">
         <v>2499</v>
       </c>
       <c r="G94" s="3">
-        <f>(F94+1)/(E94-D94)*1000</f>
-        <v>307.46525642602387</v>
+        <f t="shared" si="2"/>
+        <v>308.18540433925051</v>
       </c>
       <c r="H94">
         <v>5004</v>
@@ -14526,29 +14536,29 @@
         <v>8</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C95">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="D95">
-        <v>19884</v>
+        <v>20133</v>
       </c>
       <c r="E95">
-        <v>28024</v>
+        <v>28264</v>
       </c>
       <c r="F95">
         <v>2499</v>
       </c>
       <c r="G95" s="3">
-        <f>(F95+1)/(E95-D95)*1000</f>
-        <v>307.12530712530713</v>
+        <f t="shared" si="2"/>
+        <v>307.46525642602387</v>
       </c>
       <c r="H95">
-        <v>55903</v>
+        <v>5004</v>
       </c>
       <c r="I95">
-        <v>44.834522981713498</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -14556,29 +14566,29 @@
         <v>8</v>
       </c>
       <c r="B96">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D96">
-        <v>19690</v>
+        <v>19884</v>
       </c>
       <c r="E96">
-        <v>27832</v>
+        <v>28024</v>
       </c>
       <c r="F96">
         <v>2499</v>
       </c>
       <c r="G96" s="3">
-        <f>(F96+1)/(E96-D96)*1000</f>
-        <v>307.04986489805947</v>
+        <f t="shared" si="2"/>
+        <v>307.12530712530713</v>
       </c>
       <c r="H96">
-        <v>11038</v>
+        <v>55903</v>
       </c>
       <c r="I96">
-        <v>53.034684605199701</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -14586,29 +14596,29 @@
         <v>8</v>
       </c>
       <c r="B97">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D97">
-        <v>20240</v>
+        <v>19690</v>
       </c>
       <c r="E97">
-        <v>28384</v>
+        <v>27832</v>
       </c>
       <c r="F97">
         <v>2499</v>
       </c>
       <c r="G97" s="3">
-        <f>(F97+1)/(E97-D97)*1000</f>
-        <v>306.97445972495092</v>
+        <f t="shared" si="2"/>
+        <v>307.04986489805947</v>
       </c>
       <c r="H97">
-        <v>2064</v>
+        <v>11038</v>
       </c>
       <c r="I97">
-        <v>59.403880796969098</v>
+        <v>53.034684605199701</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -14616,29 +14626,29 @@
         <v>8</v>
       </c>
       <c r="B98">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C98">
         <v>128</v>
       </c>
       <c r="D98">
-        <v>19711</v>
+        <v>20240</v>
       </c>
       <c r="E98">
-        <v>27875</v>
+        <v>28384</v>
       </c>
       <c r="F98">
         <v>2499</v>
       </c>
       <c r="G98" s="3">
-        <f>(F98+1)/(E98-D98)*1000</f>
-        <v>306.22243998040176</v>
+        <f t="shared" ref="G98:G128" si="3">(F98+1)/(E98-D98)*1000</f>
+        <v>306.97445972495092</v>
       </c>
       <c r="H98">
-        <v>5004</v>
+        <v>2064</v>
       </c>
       <c r="I98">
-        <v>55.667527051436103</v>
+        <v>59.403880796969098</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -14646,29 +14656,29 @@
         <v>8</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C99">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D99">
-        <v>19814</v>
+        <v>19711</v>
       </c>
       <c r="E99">
-        <v>28003</v>
+        <v>27875</v>
       </c>
       <c r="F99">
         <v>2499</v>
       </c>
       <c r="G99" s="3">
-        <f>(F99+1)/(E99-D99)*1000</f>
-        <v>305.28758090120897</v>
+        <f t="shared" si="3"/>
+        <v>306.22243998040176</v>
       </c>
       <c r="H99">
-        <v>23855</v>
+        <v>5004</v>
       </c>
       <c r="I99">
-        <v>49.660165253168302</v>
+        <v>55.667527051436103</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -14676,29 +14686,29 @@
         <v>8</v>
       </c>
       <c r="B100">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="D100">
-        <v>19333</v>
+        <v>19814</v>
       </c>
       <c r="E100">
-        <v>27546</v>
+        <v>28003</v>
       </c>
       <c r="F100">
         <v>2499</v>
       </c>
       <c r="G100" s="3">
-        <f>(F100+1)/(E100-D100)*1000</f>
-        <v>304.39547059539757</v>
+        <f t="shared" si="3"/>
+        <v>305.28758090120897</v>
       </c>
       <c r="H100">
-        <v>2267</v>
+        <v>23855</v>
       </c>
       <c r="I100">
-        <v>58.900601280725802</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -14706,29 +14716,29 @@
         <v>8</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C101">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D101">
-        <v>19944</v>
+        <v>19333</v>
       </c>
       <c r="E101">
-        <v>28160</v>
+        <v>27546</v>
       </c>
       <c r="F101">
         <v>2499</v>
       </c>
       <c r="G101" s="3">
-        <f>(F101+1)/(E101-D101)*1000</f>
-        <v>304.28432327166507</v>
+        <f t="shared" si="3"/>
+        <v>304.39547059539757</v>
       </c>
       <c r="H101">
-        <v>55903</v>
+        <v>2267</v>
       </c>
       <c r="I101">
-        <v>44.834522981713498</v>
+        <v>58.900601280725802</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -14736,89 +14746,89 @@
         <v>8</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D102">
-        <v>19764</v>
+        <v>19944</v>
       </c>
       <c r="E102">
-        <v>27980</v>
+        <v>28160</v>
       </c>
       <c r="F102">
         <v>2499</v>
       </c>
       <c r="G102" s="3">
-        <f>(F102+1)/(E102-D102)*1000</f>
+        <f t="shared" si="3"/>
         <v>304.28432327166507</v>
       </c>
       <c r="H102">
-        <v>23855</v>
+        <v>55903</v>
       </c>
       <c r="I102">
-        <v>49.660165253168302</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B103">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C103">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D103">
-        <v>12950</v>
+        <v>19764</v>
       </c>
       <c r="E103">
-        <v>21171</v>
+        <v>27980</v>
       </c>
       <c r="F103">
         <v>2499</v>
       </c>
       <c r="G103" s="3">
-        <f>(F103+1)/(E103-D103)*1000</f>
-        <v>304.09925799781053</v>
+        <f t="shared" si="3"/>
+        <v>304.28432327166507</v>
       </c>
       <c r="H103">
-        <v>10862</v>
+        <v>23855</v>
       </c>
       <c r="I103">
-        <v>53.2450287974874</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B104">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D104">
-        <v>19575</v>
+        <v>12950</v>
       </c>
       <c r="E104">
-        <v>27797</v>
+        <v>21171</v>
       </c>
       <c r="F104">
         <v>2499</v>
       </c>
       <c r="G104" s="3">
-        <f>(F104+1)/(E104-D104)*1000</f>
-        <v>304.06227195329603</v>
+        <f t="shared" si="3"/>
+        <v>304.09925799781053</v>
       </c>
       <c r="H104">
-        <v>16399</v>
+        <v>10862</v>
       </c>
       <c r="I104">
-        <v>50.820690561240802</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -14826,29 +14836,29 @@
         <v>8</v>
       </c>
       <c r="B105">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C105">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>19939</v>
+        <v>19575</v>
       </c>
       <c r="E105">
-        <v>28171</v>
+        <v>27797</v>
       </c>
       <c r="F105">
         <v>2499</v>
       </c>
       <c r="G105" s="3">
-        <f>(F105+1)/(E105-D105)*1000</f>
-        <v>303.69290573372206</v>
+        <f t="shared" si="3"/>
+        <v>304.06227195329603</v>
       </c>
       <c r="H105">
-        <v>2267</v>
+        <v>16399</v>
       </c>
       <c r="I105">
-        <v>58.900601280725802</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -14856,29 +14866,29 @@
         <v>8</v>
       </c>
       <c r="B106">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C106">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D106">
-        <v>20083</v>
+        <v>19939</v>
       </c>
       <c r="E106">
-        <v>28321</v>
+        <v>28171</v>
       </c>
       <c r="F106">
         <v>2499</v>
       </c>
       <c r="G106" s="3">
-        <f>(F106+1)/(E106-D106)*1000</f>
-        <v>303.47171643602815</v>
+        <f t="shared" si="3"/>
+        <v>303.69290573372206</v>
       </c>
       <c r="H106">
-        <v>10862</v>
+        <v>2267</v>
       </c>
       <c r="I106">
-        <v>53.2450287974874</v>
+        <v>58.900601280725802</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -14886,29 +14896,29 @@
         <v>8</v>
       </c>
       <c r="B107">
+        <v>32</v>
+      </c>
+      <c r="C107">
         <v>256</v>
       </c>
-      <c r="C107">
-        <v>512</v>
-      </c>
       <c r="D107">
-        <v>20332</v>
+        <v>20083</v>
       </c>
       <c r="E107">
-        <v>28576</v>
+        <v>28321</v>
       </c>
       <c r="F107">
         <v>2499</v>
       </c>
       <c r="G107" s="3">
-        <f>(F107+1)/(E107-D107)*1000</f>
-        <v>303.25084910237746</v>
+        <f t="shared" si="3"/>
+        <v>303.47171643602815</v>
       </c>
       <c r="H107">
-        <v>1052</v>
+        <v>10862</v>
       </c>
       <c r="I107">
-        <v>60.4305701786786</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -14916,29 +14926,29 @@
         <v>8</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C108">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="D108">
-        <v>20287</v>
+        <v>20332</v>
       </c>
       <c r="E108">
-        <v>28533</v>
+        <v>28576</v>
       </c>
       <c r="F108">
         <v>2499</v>
       </c>
       <c r="G108" s="3">
-        <f>(F108+1)/(E108-D108)*1000</f>
-        <v>303.17729808391948</v>
+        <f t="shared" si="3"/>
+        <v>303.25084910237746</v>
       </c>
       <c r="H108">
-        <v>55903</v>
+        <v>1052</v>
       </c>
       <c r="I108">
-        <v>44.834522981713498</v>
+        <v>60.4305701786786</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -14946,29 +14956,29 @@
         <v>8</v>
       </c>
       <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
         <v>64</v>
       </c>
-      <c r="C109">
-        <v>32</v>
-      </c>
       <c r="D109">
-        <v>19838</v>
+        <v>20287</v>
       </c>
       <c r="E109">
-        <v>28092</v>
+        <v>28533</v>
       </c>
       <c r="F109">
         <v>2499</v>
       </c>
       <c r="G109" s="3">
-        <f>(F109+1)/(E109-D109)*1000</f>
-        <v>302.88345044826752</v>
+        <f t="shared" si="3"/>
+        <v>303.17729808391948</v>
       </c>
       <c r="H109">
-        <v>8245</v>
+        <v>55903</v>
       </c>
       <c r="I109">
-        <v>54.016567328543601</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -14976,29 +14986,29 @@
         <v>8</v>
       </c>
       <c r="B110">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D110">
-        <v>20614</v>
+        <v>19838</v>
       </c>
       <c r="E110">
-        <v>28877</v>
+        <v>28092</v>
       </c>
       <c r="F110">
         <v>2499</v>
       </c>
       <c r="G110" s="3">
-        <f>(F110+1)/(E110-D110)*1000</f>
-        <v>302.55355197870023</v>
+        <f t="shared" si="3"/>
+        <v>302.88345044826752</v>
       </c>
       <c r="H110">
-        <v>32788</v>
+        <v>8245</v>
       </c>
       <c r="I110">
-        <v>45.842384753024398</v>
+        <v>54.016567328543601</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -15006,29 +15016,29 @@
         <v>8</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>19974</v>
+        <v>20614</v>
       </c>
       <c r="E111">
-        <v>28243</v>
+        <v>28877</v>
       </c>
       <c r="F111">
         <v>2499</v>
       </c>
       <c r="G111" s="3">
-        <f>(F111+1)/(E111-D111)*1000</f>
-        <v>302.33401862377559</v>
+        <f t="shared" si="3"/>
+        <v>302.55355197870023</v>
       </c>
       <c r="H111">
-        <v>16520</v>
+        <v>32788</v>
       </c>
       <c r="I111">
-        <v>50.677176912107399</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -15036,29 +15046,29 @@
         <v>8</v>
       </c>
       <c r="B112">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="C112">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D112">
-        <v>19265</v>
+        <v>19974</v>
       </c>
       <c r="E112">
-        <v>27550</v>
+        <v>28243</v>
       </c>
       <c r="F112">
         <v>2499</v>
       </c>
       <c r="G112" s="3">
-        <f>(F112+1)/(E112-D112)*1000</f>
-        <v>301.75015087507546</v>
+        <f t="shared" si="3"/>
+        <v>302.33401862377559</v>
       </c>
       <c r="H112">
-        <v>4122</v>
+        <v>16520</v>
       </c>
       <c r="I112">
-        <v>56.7938516875952</v>
+        <v>50.677176912107399</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -15069,26 +15079,26 @@
         <v>128</v>
       </c>
       <c r="C113">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D113">
-        <v>19317</v>
+        <v>19265</v>
       </c>
       <c r="E113">
-        <v>27606</v>
+        <v>27550</v>
       </c>
       <c r="F113">
         <v>2499</v>
       </c>
       <c r="G113" s="3">
-        <f>(F113+1)/(E113-D113)*1000</f>
-        <v>301.60453613222342</v>
+        <f t="shared" si="3"/>
+        <v>301.75015087507546</v>
       </c>
       <c r="H113">
-        <v>8203</v>
+        <v>4122</v>
       </c>
       <c r="I113">
-        <v>54.216030644869697</v>
+        <v>56.7938516875952</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -15096,29 +15106,29 @@
         <v>8</v>
       </c>
       <c r="B114">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D114">
-        <v>19850</v>
+        <v>19317</v>
       </c>
       <c r="E114">
-        <v>28161</v>
+        <v>27606</v>
       </c>
       <c r="F114">
         <v>2499</v>
       </c>
       <c r="G114" s="3">
-        <f>(F114+1)/(E114-D114)*1000</f>
-        <v>300.80616051016722</v>
+        <f t="shared" si="3"/>
+        <v>301.60453613222342</v>
       </c>
       <c r="H114">
-        <v>32788</v>
+        <v>8203</v>
       </c>
       <c r="I114">
-        <v>45.842384753024398</v>
+        <v>54.216030644869697</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -15126,29 +15136,29 @@
         <v>8</v>
       </c>
       <c r="B115">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="C115">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>20276</v>
+        <v>19850</v>
       </c>
       <c r="E115">
-        <v>28588</v>
+        <v>28161</v>
       </c>
       <c r="F115">
         <v>2499</v>
       </c>
       <c r="G115" s="3">
-        <f>(F115+1)/(E115-D115)*1000</f>
-        <v>300.76997112608279</v>
+        <f t="shared" si="3"/>
+        <v>300.80616051016722</v>
       </c>
       <c r="H115">
-        <v>4106</v>
+        <v>32788</v>
       </c>
       <c r="I115">
-        <v>56.855660907782898</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -15156,29 +15166,29 @@
         <v>8</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="C116">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D116">
-        <v>20058</v>
+        <v>20276</v>
       </c>
       <c r="E116">
-        <v>28383</v>
+        <v>28588</v>
       </c>
       <c r="F116">
         <v>2499</v>
       </c>
       <c r="G116" s="3">
-        <f>(F116+1)/(E116-D116)*1000</f>
-        <v>300.30030030030031</v>
+        <f t="shared" si="3"/>
+        <v>300.76997112608279</v>
       </c>
       <c r="H116">
-        <v>55903</v>
+        <v>4106</v>
       </c>
       <c r="I116">
-        <v>44.834522981713498</v>
+        <v>56.855660907782898</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -15186,29 +15196,29 @@
         <v>8</v>
       </c>
       <c r="B117">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <v>20589</v>
+        <v>20058</v>
       </c>
       <c r="E117">
-        <v>28920</v>
+        <v>28383</v>
       </c>
       <c r="F117">
         <v>2499</v>
       </c>
       <c r="G117" s="3">
-        <f>(F117+1)/(E117-D117)*1000</f>
-        <v>300.08402352658743</v>
+        <f t="shared" si="3"/>
+        <v>300.30030030030031</v>
       </c>
       <c r="H117">
-        <v>1198</v>
+        <v>55903</v>
       </c>
       <c r="I117">
-        <v>60.098365947166897</v>
+        <v>44.834522981713498</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -15216,29 +15226,29 @@
         <v>8</v>
       </c>
       <c r="B118">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C118">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D118">
-        <v>19688</v>
+        <v>20589</v>
       </c>
       <c r="E118">
-        <v>28022</v>
+        <v>28920</v>
       </c>
       <c r="F118">
         <v>2499</v>
       </c>
       <c r="G118" s="3">
-        <f>(F118+1)/(E118-D118)*1000</f>
-        <v>299.9760019198464</v>
+        <f t="shared" si="3"/>
+        <v>300.08402352658743</v>
       </c>
       <c r="H118">
-        <v>10862</v>
+        <v>1198</v>
       </c>
       <c r="I118">
-        <v>53.2450287974874</v>
+        <v>60.098365947166897</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -15246,29 +15256,29 @@
         <v>8</v>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C119">
         <v>512</v>
       </c>
       <c r="D119">
-        <v>22191</v>
+        <v>19688</v>
       </c>
       <c r="E119">
-        <v>30546</v>
+        <v>28022</v>
       </c>
       <c r="F119">
         <v>2499</v>
       </c>
       <c r="G119" s="3">
-        <f>(F119+1)/(E119-D119)*1000</f>
-        <v>299.22202274087374</v>
+        <f t="shared" si="3"/>
+        <v>299.9760019198464</v>
       </c>
       <c r="H119">
-        <v>23855</v>
+        <v>10862</v>
       </c>
       <c r="I119">
-        <v>49.660165253168302</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -15276,29 +15286,29 @@
         <v>8</v>
       </c>
       <c r="B120">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D120">
-        <v>20704</v>
+        <v>22191</v>
       </c>
       <c r="E120">
-        <v>29088</v>
+        <v>30546</v>
       </c>
       <c r="F120">
         <v>2499</v>
       </c>
       <c r="G120" s="3">
-        <f>(F120+1)/(E120-D120)*1000</f>
-        <v>298.1870229007634</v>
+        <f t="shared" si="3"/>
+        <v>299.22202274087374</v>
       </c>
       <c r="H120">
-        <v>8203</v>
+        <v>23855</v>
       </c>
       <c r="I120">
-        <v>54.216030644869697</v>
+        <v>49.660165253168302</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -15309,26 +15319,26 @@
         <v>256</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D121">
-        <v>20688</v>
+        <v>20704</v>
       </c>
       <c r="E121">
-        <v>29198</v>
+        <v>29088</v>
       </c>
       <c r="F121">
         <v>2499</v>
       </c>
       <c r="G121" s="3">
-        <f>(F121+1)/(E121-D121)*1000</f>
-        <v>293.77203290246769</v>
+        <f t="shared" si="3"/>
+        <v>298.1870229007634</v>
       </c>
       <c r="H121">
-        <v>32788</v>
+        <v>8203</v>
       </c>
       <c r="I121">
-        <v>45.842384753024398</v>
+        <v>54.216030644869697</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -15336,29 +15346,29 @@
         <v>8</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D122">
-        <v>20778</v>
+        <v>20688</v>
       </c>
       <c r="E122">
-        <v>29327</v>
+        <v>29198</v>
       </c>
       <c r="F122">
         <v>2499</v>
       </c>
       <c r="G122" s="3">
-        <f>(F122+1)/(E122-D122)*1000</f>
-        <v>292.43186337583342</v>
+        <f t="shared" si="3"/>
+        <v>293.77203290246769</v>
       </c>
       <c r="H122">
-        <v>23893</v>
+        <v>32788</v>
       </c>
       <c r="I122">
-        <v>49.581888470757299</v>
+        <v>45.842384753024398</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -15366,29 +15376,29 @@
         <v>8</v>
       </c>
       <c r="B123">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="C123">
         <v>16</v>
       </c>
       <c r="D123">
-        <v>20395</v>
+        <v>20778</v>
       </c>
       <c r="E123">
-        <v>28971</v>
+        <v>29327</v>
       </c>
       <c r="F123">
         <v>2499</v>
       </c>
       <c r="G123" s="3">
-        <f>(F123+1)/(E123-D123)*1000</f>
-        <v>291.51119402985074</v>
+        <f t="shared" si="3"/>
+        <v>292.43186337583342</v>
       </c>
       <c r="H123">
-        <v>16399</v>
+        <v>23893</v>
       </c>
       <c r="I123">
-        <v>50.820690561240802</v>
+        <v>49.581888470757299</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -15396,83 +15406,83 @@
         <v>8</v>
       </c>
       <c r="B124">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="C124">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D124">
-        <v>21174</v>
+        <v>20395</v>
       </c>
       <c r="E124">
-        <v>29769</v>
+        <v>28971</v>
       </c>
       <c r="F124">
         <v>2499</v>
       </c>
       <c r="G124" s="3">
-        <f>(F124+1)/(E124-D124)*1000</f>
-        <v>290.86678301337986</v>
+        <f t="shared" si="3"/>
+        <v>291.51119402985074</v>
       </c>
       <c r="H124">
-        <v>10862</v>
+        <v>16399</v>
       </c>
       <c r="I124">
-        <v>53.2450287974874</v>
+        <v>50.820690561240802</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C125">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D125">
-        <v>13558</v>
+        <v>21174</v>
       </c>
       <c r="E125">
-        <v>22189</v>
+        <v>29769</v>
       </c>
       <c r="F125">
         <v>2499</v>
       </c>
       <c r="G125" s="3">
-        <f>(F125+1)/(E125-D125)*1000</f>
-        <v>289.65357432510717</v>
+        <f t="shared" si="3"/>
+        <v>290.86678301337986</v>
       </c>
       <c r="H125">
-        <v>23855</v>
+        <v>10862</v>
       </c>
       <c r="I125">
-        <v>49.660165253168302</v>
+        <v>53.2450287974874</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B126">
         <v>16</v>
       </c>
       <c r="C126">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="D126">
-        <v>19925</v>
+        <v>13558</v>
       </c>
       <c r="E126">
-        <v>29186</v>
+        <v>22189</v>
       </c>
       <c r="F126">
         <v>2499</v>
       </c>
       <c r="G126" s="3">
-        <f>(F126+1)/(E126-D126)*1000</f>
-        <v>269.94924954108632</v>
+        <f t="shared" si="3"/>
+        <v>289.65357432510717</v>
       </c>
       <c r="H126">
         <v>23855</v>
@@ -15486,35 +15496,88 @@
         <v>8</v>
       </c>
       <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>256</v>
+      </c>
+      <c r="D127">
+        <v>19925</v>
+      </c>
+      <c r="E127">
+        <v>29186</v>
+      </c>
+      <c r="F127">
+        <v>2499</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="3"/>
+        <v>269.94924954108632</v>
+      </c>
+      <c r="H127">
+        <v>23855</v>
+      </c>
+      <c r="I127">
+        <v>49.660165253168302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
         <v>128</v>
       </c>
-      <c r="C127">
-        <v>16</v>
-      </c>
-      <c r="D127">
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128">
         <v>19129</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>28944</v>
       </c>
-      <c r="F127">
-        <v>2499</v>
-      </c>
-      <c r="G127" s="3">
-        <f>(F127+1)/(E127-D127)*1000</f>
+      <c r="F128">
+        <v>2499</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="3"/>
         <v>254.71217524197658</v>
       </c>
-      <c r="H127">
+      <c r="H128">
         <v>16399</v>
       </c>
-      <c r="I127">
+      <c r="I128">
         <v>50.820690561240802</v>
       </c>
     </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="I141" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I127">
-    <sortCondition descending="1" ref="G1:G127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I128">
+    <sortCondition descending="1" ref="G2:G128"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>